--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A406CFFC-8401-4AEE-8C53-BE152B12C56E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFD29CA-D2A3-454C-9AC0-4FCACC085350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="868">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3407,6 +3407,90 @@
   </si>
   <si>
     <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积压订单中的订单总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查句子中的数字是否递增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有界数组中指定下标处的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计异或值在范围内的数对有多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计各位数字之和为偶数的整数个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟/数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3726,7 +3810,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4226,7 +4310,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4348,7 +4432,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4470,7 +4554,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6462,7 +6546,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18009,7 +18093,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18018,9 +18102,10 @@
     <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -18071,31 +18156,124 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="25">
         <v>44928</v>
       </c>
+      <c r="B3">
+        <v>1801</v>
+      </c>
+      <c r="C3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D3" t="s">
+        <v>848</v>
+      </c>
+      <c r="E3">
+        <v>1711</v>
+      </c>
+      <c r="F3" t="s">
+        <v>849</v>
+      </c>
+      <c r="G3" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="25">
         <v>44929</v>
       </c>
+      <c r="B4">
+        <v>2042</v>
+      </c>
+      <c r="C4" t="s">
+        <v>852</v>
+      </c>
+      <c r="D4" t="s">
+        <v>853</v>
+      </c>
+      <c r="E4">
+        <v>1257</v>
+      </c>
+      <c r="F4" t="s">
+        <v>854</v>
+      </c>
+      <c r="G4" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="25">
         <v>44930</v>
       </c>
+      <c r="B5">
+        <v>1802</v>
+      </c>
+      <c r="C5" t="s">
+        <v>856</v>
+      </c>
+      <c r="D5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E5">
+        <v>1929</v>
+      </c>
+      <c r="F5" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>44931</v>
       </c>
+      <c r="B6">
+        <v>1803</v>
+      </c>
+      <c r="C6" t="s">
+        <v>860</v>
+      </c>
+      <c r="D6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E6">
+        <v>2479</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>862</v>
+      </c>
+      <c r="H6" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>44932</v>
       </c>
+      <c r="B7">
+        <v>2180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>864</v>
+      </c>
+      <c r="D7" t="s">
+        <v>865</v>
+      </c>
+      <c r="E7">
+        <v>1257</v>
+      </c>
+      <c r="F7" t="s">
+        <v>866</v>
+      </c>
+      <c r="G7" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
@@ -18231,14 +18409,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -18254,7 +18432,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -18270,7 +18448,7 @@
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -18292,11 +18470,18 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1155</v>
+        <v>1631.3333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="25"/>
+      <c r="D40" t="s">
+        <v>859</v>
+      </c>
+      <c r="E40">
+        <f>MAX(E2:E32)</f>
+        <v>2479</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="25"/>
@@ -19310,7 +19495,7 @@
       </c>
       <c r="C2" s="16">
         <f>'23年1月'!E34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="16" t="e">
         <f>#REF!</f>
@@ -19371,7 +19556,7 @@
       </c>
       <c r="C3" s="16">
         <f>'23年1月'!E35</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="16" t="e">
         <f>#REF!</f>
@@ -19432,7 +19617,7 @@
       </c>
       <c r="C4" s="16">
         <f>'23年1月'!E36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="16" t="e">
         <f>#REF!</f>
@@ -19788,8 +19973,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19798,7 +19983,7 @@
     <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -19834,15 +20019,15 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
-      <c r="E4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
@@ -19985,7 +20170,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(F2:F32,"CV后没看懂")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -19996,13 +20181,20 @@
       <c r="D39" t="s">
         <v>844</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="e">
         <f>AVERAGE(E2:E32)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
+      <c r="D40" t="s">
+        <v>859</v>
+      </c>
+      <c r="E40">
+        <f>MAX(E2:E32)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFD29CA-D2A3-454C-9AC0-4FCACC085350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F480C736-4CB7-4F85-910B-0AB01ED080A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="877">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3491,6 +3491,42 @@
   </si>
   <si>
     <t>模拟/数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将x减到0的最小操作数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计包含给定前缀的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心+二分 / 数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3810,7 +3846,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4310,7 +4346,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4432,7 +4468,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -18093,7 +18129,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18103,7 +18139,7 @@
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -18225,6 +18261,9 @@
       <c r="F5" t="s">
         <v>858</v>
       </c>
+      <c r="G5" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
@@ -18279,11 +18318,47 @@
       <c r="A8" s="25">
         <v>44933</v>
       </c>
+      <c r="B8">
+        <v>1658</v>
+      </c>
+      <c r="C8" t="s">
+        <v>868</v>
+      </c>
+      <c r="D8" t="s">
+        <v>870</v>
+      </c>
+      <c r="E8">
+        <v>1817</v>
+      </c>
+      <c r="F8" t="s">
+        <v>871</v>
+      </c>
+      <c r="G8" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>44934</v>
       </c>
+      <c r="B9">
+        <v>2185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>873</v>
+      </c>
+      <c r="D9" t="s">
+        <v>872</v>
+      </c>
+      <c r="E9">
+        <v>1167</v>
+      </c>
+      <c r="F9" t="s">
+        <v>874</v>
+      </c>
+      <c r="G9" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
@@ -18409,14 +18484,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -18432,7 +18507,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -18470,7 +18545,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1631.3333333333333</v>
+        <v>1596.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -19495,7 +19570,7 @@
       </c>
       <c r="C2" s="16">
         <f>'23年1月'!E34</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="16" t="e">
         <f>#REF!</f>
@@ -19556,7 +19631,7 @@
       </c>
       <c r="C3" s="16">
         <f>'23年1月'!E35</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="16" t="e">
         <f>#REF!</f>

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F480C736-4CB7-4F85-910B-0AB01ED080A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D3769B-2944-4E2D-8EB6-AFB9A1E68F4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="887">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3527,6 +3527,46 @@
   </si>
   <si>
     <t>贪心+二分 / 数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原排列的最少操作步数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破解保险箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierholzer算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断一个数的数字计数是否等于数位的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3846,13 +3886,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4346,7 +4386,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4468,7 +4508,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4590,7 +4630,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -18129,7 +18169,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18141,7 +18181,7 @@
     <col min="6" max="6" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -18364,16 +18404,79 @@
       <c r="A10" s="25">
         <v>44935</v>
       </c>
+      <c r="B10">
+        <v>1806</v>
+      </c>
+      <c r="C10" t="s">
+        <v>880</v>
+      </c>
+      <c r="D10" t="s">
+        <v>877</v>
+      </c>
+      <c r="E10">
+        <v>1491</v>
+      </c>
+      <c r="F10" t="s">
+        <v>878</v>
+      </c>
+      <c r="G10" t="s">
+        <v>867</v>
+      </c>
+      <c r="I10" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>44936</v>
       </c>
+      <c r="B11">
+        <v>753</v>
+      </c>
+      <c r="C11" t="s">
+        <v>881</v>
+      </c>
+      <c r="D11" t="s">
+        <v>882</v>
+      </c>
+      <c r="E11">
+        <v>2273</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>883</v>
+      </c>
+      <c r="H11" t="s">
+        <v>883</v>
+      </c>
+      <c r="I11" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>44937</v>
       </c>
+      <c r="B12">
+        <v>2283</v>
+      </c>
+      <c r="C12" t="s">
+        <v>884</v>
+      </c>
+      <c r="D12" t="s">
+        <v>885</v>
+      </c>
+      <c r="E12">
+        <v>1253</v>
+      </c>
+      <c r="F12" t="s">
+        <v>886</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
@@ -18484,14 +18587,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -18507,7 +18610,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -18516,14 +18619,14 @@
       </c>
       <c r="B36">
         <f>COUNTIF(F2:F32,"CV后看懂")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -18545,7 +18648,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1596.5</v>
+        <v>1617.1818181818182</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -19570,7 +19673,7 @@
       </c>
       <c r="C2" s="16">
         <f>'23年1月'!E34</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="16" t="e">
         <f>#REF!</f>
@@ -19631,7 +19734,7 @@
       </c>
       <c r="C3" s="16">
         <f>'23年1月'!E35</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="16" t="e">
         <f>#REF!</f>
@@ -19692,7 +19795,7 @@
       </c>
       <c r="C4" s="16">
         <f>'23年1月'!E36</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="16" t="e">
         <f>#REF!</f>

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D3769B-2944-4E2D-8EB6-AFB9A1E68F4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66320237-370D-47BE-8F6D-5D55E9D7EA0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="902">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3567,6 +3567,66 @@
   </si>
   <si>
     <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换字符串中的括号内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串数组转map方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重排字符形成目标字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列中不同最大公约数的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化+数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极大极小游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟/递归</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3886,13 +3946,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4386,7 +4446,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4508,7 +4568,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4630,7 +4690,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -18169,7 +18229,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18482,21 +18542,96 @@
       <c r="A13" s="25">
         <v>44938</v>
       </c>
+      <c r="B13">
+        <v>1807</v>
+      </c>
+      <c r="C13" t="s">
+        <v>888</v>
+      </c>
+      <c r="D13" t="s">
+        <v>887</v>
+      </c>
+      <c r="E13">
+        <v>1481</v>
+      </c>
+      <c r="F13" t="s">
+        <v>889</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>44939</v>
       </c>
+      <c r="B14">
+        <v>2287</v>
+      </c>
+      <c r="C14" t="s">
+        <v>891</v>
+      </c>
+      <c r="D14" t="s">
+        <v>892</v>
+      </c>
+      <c r="E14">
+        <v>1299</v>
+      </c>
+      <c r="F14" t="s">
+        <v>893</v>
+      </c>
+      <c r="G14" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>44940</v>
       </c>
+      <c r="B15">
+        <v>1819</v>
+      </c>
+      <c r="C15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D15" t="s">
+        <v>896</v>
+      </c>
+      <c r="E15">
+        <v>2539</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>44941</v>
       </c>
+      <c r="B16">
+        <v>2293</v>
+      </c>
+      <c r="C16" t="s">
+        <v>898</v>
+      </c>
+      <c r="D16" t="s">
+        <v>899</v>
+      </c>
+      <c r="E16">
+        <v>1241</v>
+      </c>
+      <c r="F16" t="s">
+        <v>900</v>
+      </c>
+      <c r="G16" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
@@ -18587,14 +18722,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -18610,7 +18745,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -18619,14 +18754,14 @@
       </c>
       <c r="B36">
         <f>COUNTIF(F2:F32,"CV后看懂")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -18648,7 +18783,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1617.1818181818182</v>
+        <v>1623.2666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -18658,7 +18793,7 @@
       </c>
       <c r="E40">
         <f>MAX(E2:E32)</f>
-        <v>2479</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -19673,7 +19808,7 @@
       </c>
       <c r="C2" s="16">
         <f>'23年1月'!E34</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="16" t="e">
         <f>#REF!</f>
@@ -19734,7 +19869,7 @@
       </c>
       <c r="C3" s="16">
         <f>'23年1月'!E35</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="16" t="e">
         <f>#REF!</f>
@@ -19795,7 +19930,7 @@
       </c>
       <c r="C4" s="16">
         <f>'23年1月'!E36</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="16" t="e">
         <f>#REF!</f>

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66320237-370D-47BE-8F6D-5D55E9D7EA0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F1DE3-F217-4E97-A5F3-78B1CF69105C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="912">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3627,6 +3627,46 @@
   </si>
   <si>
     <t>模拟/递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句子相似性III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计一个数组中好对子的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求出MK平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化+哈希表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3946,7 +3986,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3955,7 +3995,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4568,7 +4608,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4690,7 +4730,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -18228,8 +18268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF56EEB-3DF8-45D8-9CEC-F3A8EEBB40D5}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18633,82 +18673,136 @@
         <v>901</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>44942</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>1813</v>
+      </c>
+      <c r="C17" t="s">
+        <v>902</v>
+      </c>
+      <c r="D17" t="s">
+        <v>903</v>
+      </c>
+      <c r="E17">
+        <v>1588</v>
+      </c>
+      <c r="F17" t="s">
+        <v>904</v>
+      </c>
+      <c r="G17" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>44943</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>1814</v>
+      </c>
+      <c r="C18" t="s">
+        <v>906</v>
+      </c>
+      <c r="D18" t="s">
+        <v>907</v>
+      </c>
+      <c r="E18">
+        <v>1737</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>44944</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>1825</v>
+      </c>
+      <c r="C19" t="s">
+        <v>909</v>
+      </c>
+      <c r="D19" t="s">
+        <v>908</v>
+      </c>
+      <c r="E19">
+        <v>2395</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>44945</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>44946</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>44947</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>44948</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>44949</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>44950</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>44951</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>44952</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>44953</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>44954</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>44955</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>44956</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>44957</v>
       </c>
@@ -18722,7 +18816,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -18745,7 +18839,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -18761,7 +18855,7 @@
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -18770,7 +18864,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(F2:F32,"CV后没看懂")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -18783,7 +18877,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1623.2666666666667</v>
+        <v>1670.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -19869,7 +19963,7 @@
       </c>
       <c r="C3" s="16">
         <f>'23年1月'!E35</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="16" t="e">
         <f>#REF!</f>
@@ -19930,7 +20024,7 @@
       </c>
       <c r="C4" s="16">
         <f>'23年1月'!E36</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="16" t="e">
         <f>#REF!</f>

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F1DE3-F217-4E97-A5F3-78B1CF69105C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C4216-902D-45AA-BAE9-6C6D76732635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="926">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3667,6 +3667,62 @@
   </si>
   <si>
     <t>转化+哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找用户活跃分钟数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则预查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最少侧跳次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到新鲜甜甜圈的最多组数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态压缩+dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟退火算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3986,7 +4042,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3995,7 +4051,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4608,7 +4664,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4730,7 +4786,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -17367,6 +17423,67 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="C:\Users\SNORLAX\AppData\Roaming\Tencent\Users\1614521467\QQ\WinTemp\RichOle\8Z${L]CXZP2NKCYNZY[A@RQ.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BED0482-BA97-485C-A82C-03CF3728AE8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="800100" y="3257550"/>
+          <a:ext cx="6010275" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18269,7 +18386,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18673,7 +18790,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>44942</v>
       </c>
@@ -18696,7 +18813,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>44943</v>
       </c>
@@ -18719,7 +18836,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>44944</v>
       </c>
@@ -18742,67 +18859,133 @@
         <v>910</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>44945</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>912</v>
+      </c>
+      <c r="G20" t="s">
+        <v>913</v>
+      </c>
+      <c r="H20" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>44946</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>1817</v>
+      </c>
+      <c r="C21" t="s">
+        <v>914</v>
+      </c>
+      <c r="D21" t="s">
+        <v>915</v>
+      </c>
+      <c r="E21">
+        <v>1360</v>
+      </c>
+      <c r="F21" t="s">
+        <v>916</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>44947</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>1824</v>
+      </c>
+      <c r="C22" t="s">
+        <v>918</v>
+      </c>
+      <c r="D22" t="s">
+        <v>919</v>
+      </c>
+      <c r="E22">
+        <v>1778</v>
+      </c>
+      <c r="F22" t="s">
+        <v>920</v>
+      </c>
+      <c r="G22" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>44948</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>1815</v>
+      </c>
+      <c r="C23" t="s">
+        <v>922</v>
+      </c>
+      <c r="D23" t="s">
+        <v>923</v>
+      </c>
+      <c r="E23">
+        <v>2559</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>924</v>
+      </c>
+      <c r="H23" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>44949</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>44950</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>44951</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>44952</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>44953</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>44954</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>44955</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>44956</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>44957</v>
       </c>
@@ -18816,7 +18999,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -18839,7 +19022,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -18855,7 +19038,7 @@
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -18864,7 +19047,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(F2:F32,"CV后没看懂")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -18877,7 +19060,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1670.5</v>
+        <v>1703.1428571428571</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -18887,7 +19070,7 @@
       </c>
       <c r="E40">
         <f>MAX(E2:E32)</f>
-        <v>2539</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -19963,7 +20146,7 @@
       </c>
       <c r="C3" s="16">
         <f>'23年1月'!E35</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="16" t="e">
         <f>#REF!</f>
@@ -20024,7 +20207,7 @@
       </c>
       <c r="C4" s="16">
         <f>'23年1月'!E36</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="16" t="e">
         <f>#REF!</f>

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C4216-902D-45AA-BAE9-6C6D76732635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9A2919-98C9-45B2-87DC-F09EEDAC992A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="936">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3723,6 +3723,46 @@
   </si>
   <si>
     <t>模拟退火算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计一个圆中点的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算应缴税款总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵转换后的秩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集+拓扑排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4042,7 +4082,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4051,7 +4091,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4542,7 +4582,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4664,7 +4704,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4786,7 +4826,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -18386,7 +18426,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18949,16 +18989,70 @@
       <c r="A24" s="25">
         <v>44949</v>
       </c>
+      <c r="B24">
+        <v>2303</v>
+      </c>
+      <c r="C24" t="s">
+        <v>930</v>
+      </c>
+      <c r="D24" t="s">
+        <v>931</v>
+      </c>
+      <c r="E24">
+        <v>1283</v>
+      </c>
+      <c r="F24" t="s">
+        <v>928</v>
+      </c>
+      <c r="G24" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>44950</v>
       </c>
+      <c r="B25">
+        <v>1828</v>
+      </c>
+      <c r="C25" t="s">
+        <v>926</v>
+      </c>
+      <c r="D25" t="s">
+        <v>927</v>
+      </c>
+      <c r="E25">
+        <v>1380</v>
+      </c>
+      <c r="F25" t="s">
+        <v>928</v>
+      </c>
+      <c r="G25" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>44951</v>
       </c>
+      <c r="B26">
+        <v>1632</v>
+      </c>
+      <c r="C26" t="s">
+        <v>933</v>
+      </c>
+      <c r="D26" t="s">
+        <v>934</v>
+      </c>
+      <c r="E26">
+        <v>2529</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
@@ -18999,14 +19093,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -19022,7 +19116,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -19038,7 +19132,7 @@
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -19047,7 +19141,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(F2:F32,"CV后没看懂")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -19060,7 +19154,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1703.1428571428571</v>
+        <v>1706.5833333333333</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -20085,7 +20179,7 @@
       </c>
       <c r="C2" s="16">
         <f>'23年1月'!E34</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="16" t="e">
         <f>#REF!</f>
@@ -20146,7 +20240,7 @@
       </c>
       <c r="C3" s="16">
         <f>'23年1月'!E35</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="16" t="e">
         <f>#REF!</f>
@@ -20207,7 +20301,7 @@
       </c>
       <c r="C4" s="16">
         <f>'23年1月'!E36</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="16" t="e">
         <f>#REF!</f>

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9A2919-98C9-45B2-87DC-F09EEDAC992A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5A956-59FC-46FD-A347-2F275ED32969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="951">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3763,6 +3763,66 @@
   </si>
   <si>
     <t>并查集+拓扑排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有给定数值的最小字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼具大小写的最好英文字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成平衡数组的方案数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp/前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计星号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则计数方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4082,7 +4142,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4582,7 +4642,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4704,7 +4764,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -18425,8 +18485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF56EEB-3DF8-45D8-9CEC-F3A8EEBB40D5}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19058,21 +19118,96 @@
       <c r="A27" s="25">
         <v>44952</v>
       </c>
+      <c r="B27">
+        <v>1663</v>
+      </c>
+      <c r="C27" t="s">
+        <v>936</v>
+      </c>
+      <c r="D27" t="s">
+        <v>937</v>
+      </c>
+      <c r="E27">
+        <v>1460</v>
+      </c>
+      <c r="F27" t="s">
+        <v>938</v>
+      </c>
+      <c r="G27" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>44953</v>
       </c>
+      <c r="B28">
+        <v>2309</v>
+      </c>
+      <c r="C28" t="s">
+        <v>939</v>
+      </c>
+      <c r="D28" t="s">
+        <v>940</v>
+      </c>
+      <c r="E28">
+        <v>1242</v>
+      </c>
+      <c r="F28" t="s">
+        <v>938</v>
+      </c>
+      <c r="G28" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>44954</v>
       </c>
+      <c r="B29">
+        <v>1664</v>
+      </c>
+      <c r="C29" t="s">
+        <v>945</v>
+      </c>
+      <c r="D29" t="s">
+        <v>943</v>
+      </c>
+      <c r="E29">
+        <v>1590</v>
+      </c>
+      <c r="F29" t="s">
+        <v>944</v>
+      </c>
+      <c r="G29" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>44955</v>
       </c>
+      <c r="B30">
+        <v>2315</v>
+      </c>
+      <c r="C30" t="s">
+        <v>947</v>
+      </c>
+      <c r="D30" t="s">
+        <v>948</v>
+      </c>
+      <c r="E30">
+        <v>1250</v>
+      </c>
+      <c r="F30" t="s">
+        <v>944</v>
+      </c>
+      <c r="G30" t="s">
+        <v>949</v>
+      </c>
+      <c r="H30" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
@@ -19093,14 +19228,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -19116,7 +19251,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -19154,7 +19289,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1706.5833333333333</v>
+        <v>1660.7142857142858</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -20116,10 +20251,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331E5CE9-5CE4-4273-8853-6A1A1E6D1622}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="B1:Q30"/>
+  <dimension ref="B1:Q57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B53" sqref="B53:Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20179,7 +20314,7 @@
       </c>
       <c r="C2" s="16">
         <f>'23年1月'!E34</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="16" t="e">
         <f>#REF!</f>
@@ -20240,7 +20375,7 @@
       </c>
       <c r="C3" s="16">
         <f>'23年1月'!E35</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="16" t="e">
         <f>#REF!</f>
@@ -20643,6 +20778,66 @@
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B54" s="25"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B55" s="25"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B56" s="25"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B57" s="25"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA5A956-59FC-46FD-A347-2F275ED32969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2184A344-BC30-400F-A415-7ADCB7D2E219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="958">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3823,6 +3823,34 @@
   </si>
   <si>
     <t>正则计数方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判读矩阵是否是一个X矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并两个链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4142,7 +4170,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4642,7 +4670,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4764,7 +4792,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -17490,13 +17518,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1233487</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18485,8 +18513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF56EEB-3DF8-45D8-9CEC-F3A8EEBB40D5}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19213,11 +19241,47 @@
       <c r="A31" s="25">
         <v>44956</v>
       </c>
+      <c r="B31">
+        <v>1669</v>
+      </c>
+      <c r="C31" t="s">
+        <v>955</v>
+      </c>
+      <c r="D31" t="s">
+        <v>956</v>
+      </c>
+      <c r="E31">
+        <v>1428</v>
+      </c>
+      <c r="F31" t="s">
+        <v>953</v>
+      </c>
+      <c r="G31" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>44957</v>
       </c>
+      <c r="B32">
+        <v>2319</v>
+      </c>
+      <c r="C32" t="s">
+        <v>951</v>
+      </c>
+      <c r="D32" t="s">
+        <v>952</v>
+      </c>
+      <c r="E32">
+        <v>1200</v>
+      </c>
+      <c r="F32" t="s">
+        <v>953</v>
+      </c>
+      <c r="G32" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="25"/>
@@ -19228,14 +19292,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -19251,7 +19315,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -19289,7 +19353,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1660.7142857142858</v>
+        <v>1637.6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -20314,7 +20378,7 @@
       </c>
       <c r="C2" s="16">
         <f>'23年1月'!E34</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="16" t="e">
         <f>#REF!</f>
@@ -20375,7 +20439,7 @@
       </c>
       <c r="C3" s="16">
         <f>'23年1月'!E35</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="16" t="e">
         <f>#REF!</f>

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBADAD9-0C21-478D-87C7-511ED6F79CFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507D0738-1521-4137-9E93-A6EA05CF5091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23年1月" sheetId="37" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="975">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3884,6 +3884,42 @@
   </si>
   <si>
     <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告一小时内使用相同员工卡大于等于三次的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希+排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除子文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树的重心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计一个验证系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强密码检验器II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心+转化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4969,7 +5005,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7462,16 +7498,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18409,67 +18445,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="C:\Users\SNORLAX\AppData\Roaming\Tencent\Users\1614521467\QQ\WinTemp\RichOle\8Z${L]CXZP2NKCYNZY[A@RQ.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BED0482-BA97-485C-A82C-03CF3728AE8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="800100" y="3257550"/>
-          <a:ext cx="6010275" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18787,67 +18762,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="C:\Users\SNORLAX\AppData\Roaming\Tencent\Users\1614521467\QQ\WinTemp\RichOle\8Z${L]CXZP2NKCYNZY[A@RQ.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DAE1C1-0654-41D1-8466-2E9C0A61A40F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="716280" y="3474720"/>
-          <a:ext cx="5404485" cy="192405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19476,22 +19390,22 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -19520,7 +19434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>44927</v>
       </c>
@@ -19543,7 +19457,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="25">
         <v>44928</v>
       </c>
@@ -19566,7 +19480,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="25">
         <v>44929</v>
       </c>
@@ -19589,7 +19503,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="25">
         <v>44930</v>
       </c>
@@ -19612,7 +19526,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>44931</v>
       </c>
@@ -19638,7 +19552,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>44932</v>
       </c>
@@ -19661,7 +19575,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>44933</v>
       </c>
@@ -19684,7 +19598,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>44934</v>
       </c>
@@ -19707,7 +19621,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>44935</v>
       </c>
@@ -19733,7 +19647,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>44936</v>
       </c>
@@ -19762,7 +19676,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>44937</v>
       </c>
@@ -19785,7 +19699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>44938</v>
       </c>
@@ -19811,7 +19725,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>44939</v>
       </c>
@@ -19834,7 +19748,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>44940</v>
       </c>
@@ -19857,7 +19771,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>44941</v>
       </c>
@@ -19880,7 +19794,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>44942</v>
       </c>
@@ -19903,7 +19817,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>44943</v>
       </c>
@@ -19926,7 +19840,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>44944</v>
       </c>
@@ -19949,10 +19863,22 @@
         <v>910</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>44945</v>
       </c>
+      <c r="B20">
+        <v>2299</v>
+      </c>
+      <c r="C20" t="s">
+        <v>972</v>
+      </c>
+      <c r="D20" t="s">
+        <v>973</v>
+      </c>
+      <c r="E20">
+        <v>1241</v>
+      </c>
       <c r="F20" t="s">
         <v>912</v>
       </c>
@@ -19963,7 +19889,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>44946</v>
       </c>
@@ -19986,7 +19912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>44947</v>
       </c>
@@ -20009,7 +19935,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>44948</v>
       </c>
@@ -20035,7 +19961,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>44949</v>
       </c>
@@ -20058,7 +19984,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>44950</v>
       </c>
@@ -20081,7 +20007,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>44951</v>
       </c>
@@ -20104,7 +20030,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>44952</v>
       </c>
@@ -20127,7 +20053,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>44953</v>
       </c>
@@ -20150,7 +20076,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>44954</v>
       </c>
@@ -20173,7 +20099,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>44955</v>
       </c>
@@ -20199,7 +20125,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>44956</v>
       </c>
@@ -20222,7 +20148,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>44957</v>
       </c>
@@ -20245,10 +20171,10 @@
         <v>954</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="25" t="s">
         <v>4</v>
       </c>
@@ -20261,10 +20187,10 @@
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
         <v>9</v>
       </c>
@@ -20280,7 +20206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="25" t="s">
         <v>23</v>
       </c>
@@ -20296,7 +20222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="25" t="s">
         <v>21</v>
       </c>
@@ -20305,20 +20231,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="25"/>
       <c r="D39" t="s">
         <v>844</v>
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1624.8064516129032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="25"/>
       <c r="D40" t="s">
         <v>859</v>
@@ -20328,102 +20254,102 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="25"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="25"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="25"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="25"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="25"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="25"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="25"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="25"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="25"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="25"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="25"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="25"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="25"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="25"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="25"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="25"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="25"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="25"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="25"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="25"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="25"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="25"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="25"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="25"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="25"/>
     </row>
   </sheetData>
@@ -20453,17 +20379,17 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -20489,7 +20415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>44866</v>
       </c>
@@ -20506,7 +20432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="23">
         <v>44867</v>
       </c>
@@ -20523,7 +20449,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="23">
         <v>44868</v>
       </c>
@@ -20543,7 +20469,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="23">
         <v>44869</v>
       </c>
@@ -20563,7 +20489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="23">
         <v>44870</v>
       </c>
@@ -20583,7 +20509,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="23">
         <v>44871</v>
       </c>
@@ -20600,7 +20526,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>44872</v>
       </c>
@@ -20617,7 +20543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="23">
         <v>44873</v>
       </c>
@@ -20640,7 +20566,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="23">
         <v>44874</v>
       </c>
@@ -20663,7 +20589,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="23">
         <v>44875</v>
       </c>
@@ -20683,7 +20609,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="23">
         <v>44876</v>
       </c>
@@ -20700,7 +20626,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="23">
         <v>44877</v>
       </c>
@@ -20720,7 +20646,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="23">
         <v>44878</v>
       </c>
@@ -20740,7 +20666,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="23">
         <v>44879</v>
       </c>
@@ -20763,7 +20689,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="23">
         <v>44880</v>
       </c>
@@ -20783,7 +20709,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="23">
         <v>44881</v>
       </c>
@@ -20803,7 +20729,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="23">
         <v>44882</v>
       </c>
@@ -20823,7 +20749,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="23">
         <v>44883</v>
       </c>
@@ -20843,7 +20769,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="23">
         <v>44884</v>
       </c>
@@ -20860,7 +20786,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="23">
         <v>44885</v>
       </c>
@@ -20880,7 +20806,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="23">
         <v>44886</v>
       </c>
@@ -20900,7 +20826,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="23">
         <v>44887</v>
       </c>
@@ -20923,7 +20849,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="23">
         <v>44888</v>
       </c>
@@ -20943,7 +20869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="23">
         <v>44889</v>
       </c>
@@ -20963,7 +20889,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="23">
         <v>44890</v>
       </c>
@@ -20983,7 +20909,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="23">
         <v>44891</v>
       </c>
@@ -21003,7 +20929,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="23">
         <v>44892</v>
       </c>
@@ -21020,7 +20946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="23">
         <v>44893</v>
       </c>
@@ -21040,7 +20966,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="23">
         <v>44894</v>
       </c>
@@ -21060,7 +20986,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="23">
         <v>44895</v>
       </c>
@@ -21080,13 +21006,13 @@
         <v>788</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>4</v>
       </c>
@@ -21102,7 +21028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>9</v>
       </c>
@@ -21118,7 +21044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>23</v>
       </c>
@@ -21134,7 +21060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>21</v>
       </c>
@@ -21143,126 +21069,126 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="13"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="13"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="13"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="13"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="13"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="13"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="13"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="13"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="13"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="13"/>
     </row>
   </sheetData>
@@ -21295,17 +21221,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -21331,7 +21257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>44896</v>
       </c>
@@ -21348,7 +21274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
         <v>44897</v>
       </c>
@@ -21365,7 +21291,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>44898</v>
       </c>
@@ -21382,7 +21308,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>44899</v>
       </c>
@@ -21405,7 +21331,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>44900</v>
       </c>
@@ -21425,7 +21351,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>44901</v>
       </c>
@@ -21442,7 +21368,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>44902</v>
       </c>
@@ -21462,7 +21388,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>44903</v>
       </c>
@@ -21482,7 +21408,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>44904</v>
       </c>
@@ -21505,7 +21431,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>44905</v>
       </c>
@@ -21528,7 +21454,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>44906</v>
       </c>
@@ -21545,7 +21471,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>44907</v>
       </c>
@@ -21562,7 +21488,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>44908</v>
       </c>
@@ -21579,7 +21505,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>44909</v>
       </c>
@@ -21599,7 +21525,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
         <v>44910</v>
       </c>
@@ -21616,7 +21542,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>44911</v>
       </c>
@@ -21633,7 +21559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>44912</v>
       </c>
@@ -21656,7 +21582,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>44913</v>
       </c>
@@ -21676,7 +21602,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>44914</v>
       </c>
@@ -21696,7 +21622,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>44915</v>
       </c>
@@ -21716,7 +21642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>44916</v>
       </c>
@@ -21736,7 +21662,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>44917</v>
       </c>
@@ -21756,7 +21682,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>44918</v>
       </c>
@@ -21776,7 +21702,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>44919</v>
       </c>
@@ -21799,7 +21725,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>44920</v>
       </c>
@@ -21819,7 +21745,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>44921</v>
       </c>
@@ -21836,7 +21762,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>44922</v>
       </c>
@@ -21853,7 +21779,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>44923</v>
       </c>
@@ -21873,7 +21799,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>44924</v>
       </c>
@@ -21890,7 +21816,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>44925</v>
       </c>
@@ -21910,7 +21836,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>44926</v>
       </c>
@@ -21930,10 +21856,10 @@
         <v>842</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
         <v>4</v>
       </c>
@@ -21949,7 +21875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>9</v>
       </c>
@@ -21965,7 +21891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>23</v>
       </c>
@@ -21981,7 +21907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
         <v>21</v>
       </c>
@@ -21990,111 +21916,111 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="14"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="14"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="14"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="14"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="14"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="14"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="14"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="14"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="14"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="14"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="14"/>
     </row>
   </sheetData>
@@ -22125,14 +22051,14 @@
       <selection activeCell="B53" sqref="B53:Q57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>267</v>
       </c>
@@ -22176,13 +22102,13 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="16">
         <f>'23年1月'!E34</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="16" t="e">
         <f>#REF!</f>
@@ -22237,7 +22163,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
@@ -22298,7 +22224,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
@@ -22359,7 +22285,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>267</v>
       </c>
@@ -22403,7 +22329,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="15" t="s">
         <v>4</v>
       </c>
@@ -22464,7 +22390,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="15" t="s">
         <v>9</v>
       </c>
@@ -22525,7 +22451,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="15" t="s">
         <v>23</v>
       </c>
@@ -22586,7 +22512,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
@@ -22647,7 +22573,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="25"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
@@ -22662,7 +22588,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="25"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -22677,7 +22603,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="25"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -22692,7 +22618,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="25"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
@@ -22724,18 +22650,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -22764,106 +22690,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="F2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>4</v>
       </c>
@@ -22879,7 +22805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>9</v>
       </c>
@@ -22895,7 +22821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>23</v>
       </c>
@@ -22911,7 +22837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
@@ -22920,10 +22846,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="D39" t="s">
         <v>844</v>
@@ -22933,7 +22859,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="D40" t="s">
         <v>859</v>
@@ -22943,102 +22869,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
   </sheetData>
@@ -23069,16 +22995,16 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -23090,7 +23016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -23113,7 +23039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -23121,7 +23047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -23131,28 +23057,28 @@
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -23185,22 +23111,22 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -23229,7 +23155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>44958</v>
       </c>
@@ -23249,7 +23175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="25">
         <v>44959</v>
       </c>
@@ -23272,7 +23198,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="25">
         <v>44960</v>
       </c>
@@ -23294,8 +23220,11 @@
       <c r="G4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="25">
         <v>44961</v>
       </c>
@@ -23312,13 +23241,13 @@
         <v>1931</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>44962</v>
       </c>
@@ -23341,7 +23270,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>44963</v>
       </c>
@@ -23358,553 +23287,205 @@
         <v>1303</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>968</v>
       </c>
       <c r="G7" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>44964</v>
       </c>
       <c r="B8">
-        <v>1658</v>
+        <v>1604</v>
       </c>
       <c r="C8" t="s">
-        <v>868</v>
+        <v>966</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8">
-        <v>1817</v>
+        <v>1606</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>44965</v>
       </c>
       <c r="B9">
-        <v>2185</v>
+        <v>1233</v>
       </c>
       <c r="C9" t="s">
-        <v>873</v>
+        <v>969</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>1167</v>
+        <v>1544</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>44966</v>
       </c>
       <c r="B10">
-        <v>1806</v>
+        <v>1797</v>
       </c>
       <c r="C10" t="s">
-        <v>880</v>
+        <v>971</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10">
-        <v>1491</v>
+        <v>1534</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>867</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>44967</v>
       </c>
-      <c r="B11">
-        <v>753</v>
-      </c>
-      <c r="C11" t="s">
-        <v>881</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>2273</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>883</v>
-      </c>
-      <c r="H11" t="s">
-        <v>883</v>
-      </c>
-      <c r="I11" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>44968</v>
       </c>
-      <c r="B12">
-        <v>2283</v>
-      </c>
-      <c r="C12" t="s">
-        <v>884</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>1253</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>44969</v>
       </c>
-      <c r="B13">
-        <v>1807</v>
-      </c>
-      <c r="C13" t="s">
-        <v>888</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>1481</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>44970</v>
       </c>
-      <c r="B14">
-        <v>2287</v>
-      </c>
-      <c r="C14" t="s">
-        <v>891</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>1299</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>44971</v>
       </c>
-      <c r="B15">
-        <v>1819</v>
-      </c>
-      <c r="C15" t="s">
-        <v>895</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>2539</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>44972</v>
       </c>
-      <c r="B16">
-        <v>2293</v>
-      </c>
-      <c r="C16" t="s">
-        <v>898</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>1241</v>
-      </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>44973</v>
       </c>
-      <c r="B17">
-        <v>1813</v>
-      </c>
-      <c r="C17" t="s">
-        <v>902</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>1588</v>
-      </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>44974</v>
       </c>
-      <c r="B18">
-        <v>1814</v>
-      </c>
-      <c r="C18" t="s">
-        <v>906</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>1737</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>44975</v>
       </c>
-      <c r="B19">
-        <v>1825</v>
-      </c>
-      <c r="C19" t="s">
-        <v>909</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>2395</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>44976</v>
       </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>913</v>
-      </c>
-      <c r="H20" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>44977</v>
       </c>
-      <c r="B21">
-        <v>1817</v>
-      </c>
-      <c r="C21" t="s">
-        <v>914</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>1360</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>44978</v>
       </c>
-      <c r="B22">
-        <v>1824</v>
-      </c>
-      <c r="C22" t="s">
-        <v>918</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <v>1778</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>44979</v>
       </c>
-      <c r="B23">
-        <v>1815</v>
-      </c>
-      <c r="C23" t="s">
-        <v>922</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>2559</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>826</v>
-      </c>
-      <c r="H23" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>44980</v>
       </c>
-      <c r="B24">
-        <v>2303</v>
-      </c>
-      <c r="C24" t="s">
-        <v>930</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>1283</v>
-      </c>
-      <c r="F24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>44981</v>
       </c>
-      <c r="B25">
-        <v>1828</v>
-      </c>
-      <c r="C25" t="s">
-        <v>926</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25">
-        <v>1380</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>44982</v>
       </c>
-      <c r="B26">
-        <v>1632</v>
-      </c>
-      <c r="C26" t="s">
-        <v>933</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26">
-        <v>2529</v>
-      </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>44983</v>
       </c>
-      <c r="B27">
-        <v>1663</v>
-      </c>
-      <c r="C27" t="s">
-        <v>936</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27">
-        <v>1460</v>
-      </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>44984</v>
       </c>
-      <c r="B28">
-        <v>2309</v>
-      </c>
-      <c r="C28" t="s">
-        <v>939</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <v>1242</v>
-      </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>44985</v>
       </c>
-      <c r="B29">
-        <v>1664</v>
-      </c>
-      <c r="C29" t="s">
-        <v>945</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29">
-        <v>1590</v>
-      </c>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="25"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="25"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="25"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
         <v>9</v>
       </c>
@@ -23917,153 +23498,153 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B36">
         <f>COUNTIF(F2:F32,"CV后看懂")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B37">
         <f>COUNTIF(F2:F32,"CV后没看懂")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="25"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="25"/>
       <c r="D39" t="s">
         <v>844</v>
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1685.4074074074074</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1636.4444444444443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="25"/>
       <c r="D40" t="s">
         <v>859</v>
       </c>
       <c r="E40">
         <f>MAX(E2:E32)</f>
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="25"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="25"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="25"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="25"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="25"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="25"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="25"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="25"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="25"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="25"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="25"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="25"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="25"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="25"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="25"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="25"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="25"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="25"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="25"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="25"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="25"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="25"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="25"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="25"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="25"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="25"/>
     </row>
   </sheetData>
@@ -24094,18 +23675,18 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -24131,7 +23712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>44287</v>
       </c>
@@ -24151,7 +23732,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>44288</v>
       </c>
@@ -24171,7 +23752,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>44289</v>
       </c>
@@ -24191,7 +23772,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>44290</v>
       </c>
@@ -24217,7 +23798,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>44291</v>
       </c>
@@ -24240,7 +23821,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>44292</v>
       </c>
@@ -24263,7 +23844,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>44293</v>
       </c>
@@ -24286,7 +23867,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>44294</v>
       </c>
@@ -24306,7 +23887,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>44295</v>
       </c>
@@ -24326,7 +23907,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>44296</v>
       </c>
@@ -24346,7 +23927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>44297</v>
       </c>
@@ -24366,7 +23947,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>44298</v>
       </c>
@@ -24386,7 +23967,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>44299</v>
       </c>
@@ -24409,7 +23990,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>44300</v>
       </c>
@@ -24432,7 +24013,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>44301</v>
       </c>
@@ -24452,7 +24033,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>44302</v>
       </c>
@@ -24475,7 +24056,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>44303</v>
       </c>
@@ -24498,7 +24079,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>44304</v>
       </c>
@@ -24521,7 +24102,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>44305</v>
       </c>
@@ -24541,7 +24122,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>44306</v>
       </c>
@@ -24561,7 +24142,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>44307</v>
       </c>
@@ -24581,7 +24162,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>44308</v>
       </c>
@@ -24601,7 +24182,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>44309</v>
       </c>
@@ -24624,7 +24205,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>44310</v>
       </c>
@@ -24644,7 +24225,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>44311</v>
       </c>
@@ -24667,7 +24248,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>44312</v>
       </c>
@@ -24687,7 +24268,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>44313</v>
       </c>
@@ -24710,7 +24291,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>44314</v>
       </c>
@@ -24730,7 +24311,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>44315</v>
       </c>
@@ -24750,7 +24331,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>44316</v>
       </c>
@@ -24773,13 +24354,13 @@
         <v>358</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
@@ -24795,7 +24376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -24811,7 +24392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
@@ -24827,7 +24408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -24836,111 +24417,111 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
     </row>
   </sheetData>
@@ -24971,18 +24552,18 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -25008,7 +24589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>44682</v>
       </c>
@@ -25028,7 +24609,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>44683</v>
       </c>
@@ -25048,7 +24629,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>44684</v>
       </c>
@@ -25071,7 +24652,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>44685</v>
       </c>
@@ -25094,7 +24675,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>44686</v>
       </c>
@@ -25117,7 +24698,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>44687</v>
       </c>
@@ -25137,7 +24718,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>44688</v>
       </c>
@@ -25157,7 +24738,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>44689</v>
       </c>
@@ -25180,7 +24761,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>44690</v>
       </c>
@@ -25200,7 +24781,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>44691</v>
       </c>
@@ -25223,7 +24804,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>44692</v>
       </c>
@@ -25243,7 +24824,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>44693</v>
       </c>
@@ -25263,7 +24844,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>44694</v>
       </c>
@@ -25283,7 +24864,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
         <v>44695</v>
       </c>
@@ -25303,7 +24884,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
         <v>44696</v>
       </c>
@@ -25326,7 +24907,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>44697</v>
       </c>
@@ -25349,7 +24930,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
         <v>44698</v>
       </c>
@@ -25372,7 +24953,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
         <v>44699</v>
       </c>
@@ -25395,7 +24976,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="17">
         <v>44700</v>
       </c>
@@ -25418,7 +24999,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="17">
         <v>44701</v>
       </c>
@@ -25438,7 +25019,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="17">
         <v>44702</v>
       </c>
@@ -25461,7 +25042,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="17">
         <v>44703</v>
       </c>
@@ -25481,7 +25062,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="17">
         <v>44704</v>
       </c>
@@ -25504,7 +25085,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="17">
         <v>44705</v>
       </c>
@@ -25524,7 +25105,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="17">
         <v>44706</v>
       </c>
@@ -25544,7 +25125,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="17">
         <v>44707</v>
       </c>
@@ -25567,7 +25148,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="17">
         <v>44708</v>
       </c>
@@ -25588,7 +25169,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="17">
         <v>44709</v>
       </c>
@@ -25608,7 +25189,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="17">
         <v>44710</v>
       </c>
@@ -25628,7 +25209,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="17">
         <v>44711</v>
       </c>
@@ -25648,7 +25229,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="17">
         <v>44712</v>
       </c>
@@ -25671,10 +25252,10 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -25690,7 +25271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>9</v>
       </c>
@@ -25706,7 +25287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>23</v>
       </c>
@@ -25722,7 +25303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>21</v>
       </c>
@@ -25731,21 +25312,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="26" t="s">
         <v>439</v>
       </c>
@@ -25754,99 +25335,99 @@
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
     </row>
   </sheetData>
@@ -25880,18 +25461,18 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -25917,7 +25498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>44713</v>
       </c>
@@ -25937,7 +25518,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="18">
         <v>44714</v>
       </c>
@@ -25957,7 +25538,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="18">
         <v>44715</v>
       </c>
@@ -25977,7 +25558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
         <v>44716</v>
       </c>
@@ -25997,7 +25578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="18">
         <v>44717</v>
       </c>
@@ -26017,7 +25598,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="18">
         <v>44718</v>
       </c>
@@ -26037,7 +25618,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>44719</v>
       </c>
@@ -26057,7 +25638,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>44720</v>
       </c>
@@ -26077,7 +25658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="18">
         <v>44721</v>
       </c>
@@ -26100,7 +25681,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="18">
         <v>44722</v>
       </c>
@@ -26120,7 +25701,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="18">
         <v>44723</v>
       </c>
@@ -26140,7 +25721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
         <v>44724</v>
       </c>
@@ -26160,7 +25741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="18">
         <v>44725</v>
       </c>
@@ -26180,7 +25761,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>44726</v>
       </c>
@@ -26203,7 +25784,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="18">
         <v>44727</v>
       </c>
@@ -26223,7 +25804,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="18">
         <v>44728</v>
       </c>
@@ -26243,7 +25824,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="18">
         <v>44729</v>
       </c>
@@ -26263,7 +25844,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="18">
         <v>44730</v>
       </c>
@@ -26286,7 +25867,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="18">
         <v>44731</v>
       </c>
@@ -26306,7 +25887,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="18">
         <v>44732</v>
       </c>
@@ -26329,7 +25910,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="18">
         <v>44733</v>
       </c>
@@ -26346,7 +25927,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="18">
         <v>44734</v>
       </c>
@@ -26366,7 +25947,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="18">
         <v>44735</v>
       </c>
@@ -26386,7 +25967,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="18">
         <v>44736</v>
       </c>
@@ -26406,7 +25987,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="18">
         <v>44737</v>
       </c>
@@ -26426,7 +26007,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="18">
         <v>44738</v>
       </c>
@@ -26449,7 +26030,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="18">
         <v>44739</v>
       </c>
@@ -26469,7 +26050,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="18">
         <v>44740</v>
       </c>
@@ -26492,7 +26073,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="18">
         <v>44741</v>
       </c>
@@ -26512,7 +26093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>44742</v>
       </c>
@@ -26532,13 +26113,13 @@
         <v>494</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
@@ -26554,7 +26135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -26570,7 +26151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -26586,7 +26167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -26595,123 +26176,123 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
@@ -26745,18 +26326,18 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -26782,7 +26363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>44743</v>
       </c>
@@ -26802,7 +26383,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="19">
         <v>44744</v>
       </c>
@@ -26822,7 +26403,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="19">
         <v>44745</v>
       </c>
@@ -26845,7 +26426,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>44746</v>
       </c>
@@ -26865,7 +26446,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>44747</v>
       </c>
@@ -26885,7 +26466,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>44748</v>
       </c>
@@ -26905,7 +26486,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>44749</v>
       </c>
@@ -26928,7 +26509,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>44750</v>
       </c>
@@ -26945,7 +26526,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>44751</v>
       </c>
@@ -26965,7 +26546,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>44752</v>
       </c>
@@ -26985,7 +26566,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>44753</v>
       </c>
@@ -27008,7 +26589,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>44754</v>
       </c>
@@ -27028,7 +26609,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>44755</v>
       </c>
@@ -27048,7 +26629,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>44756</v>
       </c>
@@ -27068,7 +26649,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>44757</v>
       </c>
@@ -27088,7 +26669,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>44758</v>
       </c>
@@ -27109,7 +26690,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>44759</v>
       </c>
@@ -27132,7 +26713,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>44760</v>
       </c>
@@ -27152,7 +26733,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>44761</v>
       </c>
@@ -27172,7 +26753,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>44762</v>
       </c>
@@ -27192,7 +26773,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>44763</v>
       </c>
@@ -27212,7 +26793,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>44764</v>
       </c>
@@ -27232,7 +26813,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>44765</v>
       </c>
@@ -27252,7 +26833,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>44766</v>
       </c>
@@ -27269,7 +26850,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>44767</v>
       </c>
@@ -27289,7 +26870,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="19">
         <v>44768</v>
       </c>
@@ -27312,7 +26893,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="19">
         <v>44769</v>
       </c>
@@ -27332,7 +26913,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="19">
         <v>44770</v>
       </c>
@@ -27352,7 +26933,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="19">
         <v>44771</v>
       </c>
@@ -27372,7 +26953,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="19">
         <v>44772</v>
       </c>
@@ -27392,7 +26973,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="19">
         <v>44773</v>
       </c>
@@ -27415,10 +26996,10 @@
         <v>558</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>4</v>
       </c>
@@ -27434,7 +27015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>9</v>
       </c>
@@ -27450,7 +27031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>23</v>
       </c>
@@ -27466,7 +27047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>21</v>
       </c>
@@ -27475,24 +27056,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="26" t="s">
         <v>504</v>
       </c>
@@ -27501,107 +27082,107 @@
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
     </row>
   </sheetData>
@@ -27635,17 +27216,17 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27671,7 +27252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>44774</v>
       </c>
@@ -27688,7 +27269,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="20">
         <v>44775</v>
       </c>
@@ -27705,7 +27286,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="20">
         <v>44776</v>
       </c>
@@ -27728,7 +27309,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="20">
         <v>44777</v>
       </c>
@@ -27748,7 +27329,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="20">
         <v>44778</v>
       </c>
@@ -27768,7 +27349,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="20">
         <v>44779</v>
       </c>
@@ -27785,7 +27366,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="20">
         <v>44780</v>
       </c>
@@ -27805,7 +27386,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="20">
         <v>44781</v>
       </c>
@@ -27825,7 +27406,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="20">
         <v>44782</v>
       </c>
@@ -27845,7 +27426,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="20">
         <v>44783</v>
       </c>
@@ -27865,7 +27446,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="20">
         <v>44784</v>
       </c>
@@ -27885,7 +27466,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="20">
         <v>44785</v>
       </c>
@@ -27905,7 +27486,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="20">
         <v>44786</v>
       </c>
@@ -27925,7 +27506,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="20">
         <v>44787</v>
       </c>
@@ -27942,7 +27523,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="20">
         <v>44788</v>
       </c>
@@ -27959,7 +27540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="20">
         <v>44789</v>
       </c>
@@ -27976,7 +27557,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="20">
         <v>44790</v>
       </c>
@@ -27996,7 +27577,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="20">
         <v>44791</v>
       </c>
@@ -28016,7 +27597,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="20">
         <v>44792</v>
       </c>
@@ -28033,7 +27614,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="20">
         <v>44793</v>
       </c>
@@ -28056,7 +27637,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="20">
         <v>44794</v>
       </c>
@@ -28076,7 +27657,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="20">
         <v>44795</v>
       </c>
@@ -28096,7 +27677,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="20">
         <v>44796</v>
       </c>
@@ -28116,7 +27697,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="20">
         <v>44797</v>
       </c>
@@ -28139,7 +27720,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="20">
         <v>44798</v>
       </c>
@@ -28159,7 +27740,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="20">
         <v>44799</v>
       </c>
@@ -28179,7 +27760,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="20">
         <v>44800</v>
       </c>
@@ -28202,7 +27783,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="20">
         <v>44801</v>
       </c>
@@ -28222,7 +27803,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="20">
         <v>44802</v>
       </c>
@@ -28242,7 +27823,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="20">
         <v>44803</v>
       </c>
@@ -28259,7 +27840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="20">
         <v>44804</v>
       </c>
@@ -28279,10 +27860,10 @@
         <v>619</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>4</v>
       </c>
@@ -28298,7 +27879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>9</v>
       </c>
@@ -28314,7 +27895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>23</v>
       </c>
@@ -28330,7 +27911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>21</v>
       </c>
@@ -28339,127 +27920,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="10"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="10"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="10"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="10"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
     </row>
   </sheetData>
@@ -28492,18 +28073,18 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -28529,7 +28110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
         <v>44805</v>
       </c>
@@ -28549,7 +28130,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>44806</v>
       </c>
@@ -28569,7 +28150,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>44807</v>
       </c>
@@ -28589,7 +28170,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>44808</v>
       </c>
@@ -28609,7 +28190,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>44809</v>
       </c>
@@ -28632,7 +28213,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>44810</v>
       </c>
@@ -28652,7 +28233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>44811</v>
       </c>
@@ -28672,7 +28253,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>44812</v>
       </c>
@@ -28692,7 +28273,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>44813</v>
       </c>
@@ -28712,7 +28293,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>44814</v>
       </c>
@@ -28732,7 +28313,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="21">
         <v>44815</v>
       </c>
@@ -28752,7 +28333,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
         <v>44816</v>
       </c>
@@ -28772,7 +28353,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="21">
         <v>44817</v>
       </c>
@@ -28792,7 +28373,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="21">
         <v>44818</v>
       </c>
@@ -28815,7 +28396,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="21">
         <v>44819</v>
       </c>
@@ -28835,7 +28416,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="21">
         <v>44820</v>
       </c>
@@ -28858,7 +28439,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="21">
         <v>44821</v>
       </c>
@@ -28875,7 +28456,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="21">
         <v>44822</v>
       </c>
@@ -28895,7 +28476,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="21">
         <v>44823</v>
       </c>
@@ -28915,7 +28496,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="21">
         <v>44824</v>
       </c>
@@ -28938,7 +28519,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="21">
         <v>44825</v>
       </c>
@@ -28958,7 +28539,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="21">
         <v>44826</v>
       </c>
@@ -28978,7 +28559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="21">
         <v>44827</v>
       </c>
@@ -28998,7 +28579,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="21">
         <v>44828</v>
       </c>
@@ -29018,7 +28599,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="21">
         <v>44829</v>
       </c>
@@ -29041,7 +28622,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="21">
         <v>44830</v>
       </c>
@@ -29064,7 +28645,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="21">
         <v>44831</v>
       </c>
@@ -29087,7 +28668,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="21">
         <v>44832</v>
       </c>
@@ -29107,7 +28688,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="21">
         <v>44833</v>
       </c>
@@ -29124,7 +28705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="21">
         <v>44834</v>
       </c>
@@ -29144,13 +28725,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>4</v>
       </c>
@@ -29166,7 +28747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>9</v>
       </c>
@@ -29182,7 +28763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>23</v>
       </c>
@@ -29198,7 +28779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -29207,127 +28788,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
     </row>
   </sheetData>
@@ -29360,18 +28941,18 @@
       <selection activeCell="A43" sqref="A43:E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29397,7 +28978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>44835</v>
       </c>
@@ -29414,7 +28995,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>44836</v>
       </c>
@@ -29434,7 +29015,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>44837</v>
       </c>
@@ -29454,7 +29035,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>44838</v>
       </c>
@@ -29474,7 +29055,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>44839</v>
       </c>
@@ -29494,7 +29075,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>44840</v>
       </c>
@@ -29514,7 +29095,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>44841</v>
       </c>
@@ -29534,7 +29115,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>44842</v>
       </c>
@@ -29557,7 +29138,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>44843</v>
       </c>
@@ -29577,7 +29158,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>44844</v>
       </c>
@@ -29597,7 +29178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>44845</v>
       </c>
@@ -29617,7 +29198,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>44846</v>
       </c>
@@ -29637,7 +29218,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>44847</v>
       </c>
@@ -29657,7 +29238,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>44848</v>
       </c>
@@ -29677,7 +29258,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>44849</v>
       </c>
@@ -29697,7 +29278,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>44850</v>
       </c>
@@ -29720,7 +29301,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>44851</v>
       </c>
@@ -29740,7 +29321,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>44852</v>
       </c>
@@ -29760,7 +29341,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>44853</v>
       </c>
@@ -29780,7 +29361,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>44854</v>
       </c>
@@ -29803,7 +29384,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>44855</v>
       </c>
@@ -29823,7 +29404,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>44856</v>
       </c>
@@ -29843,7 +29424,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>44857</v>
       </c>
@@ -29860,7 +29441,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>44858</v>
       </c>
@@ -29877,7 +29458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="22">
         <v>44859</v>
       </c>
@@ -29897,7 +29478,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="22">
         <v>44860</v>
       </c>
@@ -29917,7 +29498,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="22">
         <v>44861</v>
       </c>
@@ -29934,7 +29515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="22">
         <v>44862</v>
       </c>
@@ -29954,7 +29535,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="22">
         <v>44863</v>
       </c>
@@ -29971,7 +29552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="22">
         <v>44864</v>
       </c>
@@ -29994,7 +29575,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="22">
         <v>44865</v>
       </c>
@@ -30014,10 +29595,10 @@
         <v>582</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>4</v>
       </c>
@@ -30033,7 +29614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>9</v>
       </c>
@@ -30049,7 +29630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
         <v>23</v>
       </c>
@@ -30065,7 +29646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>21</v>
       </c>
@@ -30074,127 +29655,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="12"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="12"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="12"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="12"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="12"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="12"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="12"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="12"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="12"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="12"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="12"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="12"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="12"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="12"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="12"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="12"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="12"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="12"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="12"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="12"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="12"/>
     </row>
   </sheetData>

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507D0738-1521-4137-9E93-A6EA05CF5091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D73F28F-7BA1-483B-9132-C94129FCD0A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="987">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3920,6 +3920,54 @@
   </si>
   <si>
     <t>贪心+转化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装满杯子需要的最短总时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掷骰子模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆化搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母板上的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7498,13 +7546,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -23111,7 +23159,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23215,7 +23263,7 @@
         <v>1741</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>178</v>
@@ -23366,16 +23414,73 @@
       <c r="A11" s="25">
         <v>44967</v>
       </c>
+      <c r="B11">
+        <v>1223</v>
+      </c>
+      <c r="C11" t="s">
+        <v>979</v>
+      </c>
+      <c r="D11" t="s">
+        <v>980</v>
+      </c>
+      <c r="E11">
+        <v>2008</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>981</v>
+      </c>
+      <c r="H11" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>44968</v>
       </c>
+      <c r="B12">
+        <v>2335</v>
+      </c>
+      <c r="C12" t="s">
+        <v>975</v>
+      </c>
+      <c r="D12" t="s">
+        <v>976</v>
+      </c>
+      <c r="E12">
+        <v>1360</v>
+      </c>
+      <c r="F12" t="s">
+        <v>977</v>
+      </c>
+      <c r="G12" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>44969</v>
       </c>
+      <c r="B13">
+        <v>1138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>983</v>
+      </c>
+      <c r="D13" t="s">
+        <v>984</v>
+      </c>
+      <c r="E13">
+        <v>1410</v>
+      </c>
+      <c r="F13" t="s">
+        <v>985</v>
+      </c>
+      <c r="G13" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
@@ -23475,14 +23580,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -23498,7 +23603,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -23507,14 +23612,14 @@
       </c>
       <c r="B36">
         <f>COUNTIF(F2:F32,"CV后看懂")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -23536,7 +23641,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1636.4444444444443</v>
+        <v>1625.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D73F28F-7BA1-483B-9132-C94129FCD0A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1960EE3C-3B1F-4A4D-96C3-1FFFBD46FDC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="999">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3968,6 +3968,54 @@
   </si>
   <si>
     <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换子串得到平衡字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口+哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查好数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裴蜀定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现良好的最长时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心/哈希</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7546,7 +7594,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -23159,7 +23207,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23486,16 +23534,73 @@
       <c r="A14" s="25">
         <v>44970</v>
       </c>
+      <c r="B14">
+        <v>1234</v>
+      </c>
+      <c r="C14" t="s">
+        <v>987</v>
+      </c>
+      <c r="D14" t="s">
+        <v>988</v>
+      </c>
+      <c r="E14">
+        <v>1877</v>
+      </c>
+      <c r="F14" t="s">
+        <v>989</v>
+      </c>
+      <c r="G14" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>44971</v>
       </c>
+      <c r="B15">
+        <v>1124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>996</v>
+      </c>
+      <c r="D15" t="s">
+        <v>997</v>
+      </c>
+      <c r="E15">
+        <v>1908</v>
+      </c>
+      <c r="F15" t="s">
+        <v>993</v>
+      </c>
+      <c r="G15" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>44972</v>
       </c>
+      <c r="B16">
+        <v>1250</v>
+      </c>
+      <c r="C16" t="s">
+        <v>991</v>
+      </c>
+      <c r="D16" t="s">
+        <v>992</v>
+      </c>
+      <c r="E16">
+        <v>1983</v>
+      </c>
+      <c r="F16" t="s">
+        <v>993</v>
+      </c>
+      <c r="G16" t="s">
+        <v>994</v>
+      </c>
+      <c r="H16" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
@@ -23580,7 +23685,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -23603,7 +23708,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -23619,7 +23724,7 @@
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -23641,7 +23746,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1625.5</v>
+        <v>1684.9333333333334</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1960EE3C-3B1F-4A4D-96C3-1FFFBD46FDC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEC4523-26CC-4A5F-8E57-A165C576469F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="1014">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4016,6 +4016,66 @@
   </si>
   <si>
     <t>贪心/哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组能形成多少数对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大的以1为边界的正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划/前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出给定方程的正整数解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大平均通过率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力/二分/双指针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7594,7 +7654,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -23207,7 +23267,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23602,78 +23662,153 @@
         <v>995</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>44973</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>2341</v>
+      </c>
+      <c r="C17" t="s">
+        <v>999</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>1184</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>44974</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>1139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E18">
+        <v>1744</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>44975</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>1237</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E19">
+        <v>1404</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>44976</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>1792</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E20">
+        <v>1817</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>44977</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>44978</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>44979</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>44980</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>44981</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>44982</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>44983</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>44984</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>44985</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="25"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="25"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="25"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -23685,14 +23820,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -23708,7 +23843,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -23746,7 +23881,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1684.9333333333334</v>
+        <v>1653.8421052631579</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEC4523-26CC-4A5F-8E57-A165C576469F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB58209-0F11-4CCE-91F9-656861E4E16E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1031">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4076,6 +4076,74 @@
   </si>
   <si>
     <t>暴力/二分/双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好的扑克手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌溉花园的最少水龙头数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划/贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀和+记忆化搜索/dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆化搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石子游戏II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环码排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格雷码生成公式：(i &gt;&gt; 1) ^ i ^ start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7654,13 +7722,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -19546,7 +19614,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23267,7 +23335,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23277,8 +23345,8 @@
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23761,21 +23829,99 @@
       <c r="A21" s="25">
         <v>44977</v>
       </c>
+      <c r="B21">
+        <v>2347</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E21">
+        <v>1241</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>44978</v>
       </c>
+      <c r="B22">
+        <v>1326</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E22">
+        <v>1326</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>44979</v>
       </c>
+      <c r="B23">
+        <v>1140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E23">
+        <v>2034</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>44980</v>
       </c>
+      <c r="B24">
+        <v>1218</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E24">
+        <v>1774</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
@@ -23820,14 +23966,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -23843,7 +23989,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -23852,14 +23998,14 @@
       </c>
       <c r="B36">
         <f>COUNTIF(F2:F32,"CV后看懂")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -23881,7 +24027,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1653.8421052631579</v>
+        <v>1643.391304347826</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -23891,7 +24037,7 @@
       </c>
       <c r="E40">
         <f>MAX(E2:E32)</f>
-        <v>2022</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB58209-0F11-4CCE-91F9-656861E4E16E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C09A2-D136-40CA-920E-D71279FFE226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1044">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4144,6 +4144,58 @@
   </si>
   <si>
     <t>格雷码生成公式：(i &gt;&gt; 1) ^ i ^ start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使数组中所有元素都等于零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希/排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换字符使得字符串相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化+贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs/状态压缩 +哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分最高的单词集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7722,7 +7774,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -23335,7 +23387,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23927,16 +23979,73 @@
       <c r="A25" s="25">
         <v>44981</v>
       </c>
+      <c r="B25">
+        <v>2357</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E25">
+        <v>1225</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1034</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>44982</v>
       </c>
+      <c r="B26">
+        <v>1247</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E26">
+        <v>1591</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>44983</v>
       </c>
+      <c r="B27">
+        <v>1255</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E27">
+        <v>1881</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
@@ -23966,14 +24075,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -23989,7 +24098,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -24005,7 +24114,7 @@
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -24027,7 +24136,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1643.391304347826</v>
+        <v>1634.4230769230769</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C09A2-D136-40CA-920E-D71279FFE226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E92BF9-BEDF-4036-9D7E-3B1B928ACEB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23年1月" sheetId="37" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="1052">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4196,6 +4196,38 @@
   </si>
   <si>
     <t>得分最高的单词集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递减元素使数组呈锯齿状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心+分类讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并相似的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5284,7 +5316,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5406,7 +5438,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5528,7 +5560,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6246,10 +6278,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6606,10 +6638,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6786,10 +6818,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7774,7 +7806,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -19666,7 +19698,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22323,8 +22355,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:Q57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:Q57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22386,9 +22418,9 @@
         <f>'23年1月'!E34</f>
         <v>12</v>
       </c>
-      <c r="D2" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="D2" s="16">
+        <f>'23年2月'!E34</f>
+        <v>7</v>
       </c>
       <c r="E2" s="16" t="e">
         <f>#REF!</f>
@@ -22447,9 +22479,9 @@
         <f>'23年1月'!E35</f>
         <v>13</v>
       </c>
-      <c r="D3" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="D3" s="16">
+        <f>'23年2月'!E35</f>
+        <v>16</v>
       </c>
       <c r="E3" s="16" t="e">
         <f>#REF!</f>
@@ -22508,9 +22540,9 @@
         <f>'23年1月'!E36</f>
         <v>6</v>
       </c>
-      <c r="D4" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="D4" s="16">
+        <f>'23年2月'!E36</f>
+        <v>5</v>
       </c>
       <c r="E4" s="16" t="e">
         <f>#REF!</f>
@@ -22609,13 +22641,13 @@
       <c r="B27" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C27" s="16">
+        <f>'23年1月'!B34</f>
+        <v>26</v>
+      </c>
+      <c r="D27" s="16">
+        <f>'23年2月'!B34</f>
+        <v>23</v>
       </c>
       <c r="E27" s="16" t="e">
         <f>#REF!</f>
@@ -22670,13 +22702,13 @@
       <c r="B28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C28" s="16">
+        <f>'23年1月'!B35</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <f>'23年2月'!B35</f>
+        <v>0</v>
       </c>
       <c r="E28" s="16" t="e">
         <f>#REF!</f>
@@ -22731,13 +22763,13 @@
       <c r="B29" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C29" s="16">
+        <f>'23年1月'!B36</f>
+        <v>2</v>
+      </c>
+      <c r="D29" s="16">
+        <f>'23年2月'!B36</f>
+        <v>3</v>
       </c>
       <c r="E29" s="16" t="e">
         <f>#REF!</f>
@@ -22792,13 +22824,13 @@
       <c r="B30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D30" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C30" s="16">
+        <f>'23年1月'!B37</f>
+        <v>3</v>
+      </c>
+      <c r="D30" s="16">
+        <f>'23年2月'!B37</f>
+        <v>2</v>
       </c>
       <c r="E30" s="16" t="e">
         <f>#REF!</f>
@@ -23386,8 +23418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602FD905-C855-4B49-A76A-91627F30B175}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24051,11 +24083,47 @@
       <c r="A28" s="25">
         <v>44984</v>
       </c>
+      <c r="B28">
+        <v>1144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E28">
+        <v>1558</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>44985</v>
       </c>
+      <c r="B29">
+        <v>2363</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E29">
+        <v>1270</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="25"/>
@@ -24075,14 +24143,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -24098,7 +24166,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -24136,7 +24204,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1634.4230769230769</v>
+        <v>1618.6785714285713</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,32 +3,33 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E92BF9-BEDF-4036-9D7E-3B1B928ACEB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470B6487-8ED6-484C-80DB-20DD409BBB95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23年1月" sheetId="37" r:id="rId1"/>
     <sheet name="23年2月" sheetId="38" r:id="rId2"/>
-    <sheet name="22年4月" sheetId="17" r:id="rId3"/>
-    <sheet name="22年5月" sheetId="20" r:id="rId4"/>
-    <sheet name="22年6月" sheetId="5" r:id="rId5"/>
-    <sheet name="22年7月" sheetId="22" r:id="rId6"/>
-    <sheet name="22年8月" sheetId="25" r:id="rId7"/>
-    <sheet name="22年9月" sheetId="29" r:id="rId8"/>
-    <sheet name="22年10月" sheetId="32" r:id="rId9"/>
-    <sheet name="22年11月" sheetId="33" r:id="rId10"/>
-    <sheet name="22年12月" sheetId="34" r:id="rId11"/>
-    <sheet name="汇总" sheetId="13" r:id="rId12"/>
-    <sheet name="模板" sheetId="21" r:id="rId13"/>
-    <sheet name="竞赛模板" sheetId="9" r:id="rId14"/>
+    <sheet name="23年3月 " sheetId="39" r:id="rId3"/>
+    <sheet name="22年4月" sheetId="17" r:id="rId4"/>
+    <sheet name="22年5月" sheetId="20" r:id="rId5"/>
+    <sheet name="22年6月" sheetId="5" r:id="rId6"/>
+    <sheet name="22年7月" sheetId="22" r:id="rId7"/>
+    <sheet name="22年8月" sheetId="25" r:id="rId8"/>
+    <sheet name="22年9月" sheetId="29" r:id="rId9"/>
+    <sheet name="22年10月" sheetId="32" r:id="rId10"/>
+    <sheet name="22年11月" sheetId="33" r:id="rId11"/>
+    <sheet name="22年12月" sheetId="34" r:id="rId12"/>
+    <sheet name="汇总" sheetId="13" r:id="rId13"/>
+    <sheet name="模板" sheetId="21" r:id="rId14"/>
+    <sheet name="竞赛模板" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1065">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4228,6 +4229,58 @@
   </si>
   <si>
     <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵中的局部最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟/二维单调队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题05.02 二进制数转字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证文件名唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希/快速沃尔什变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速沃尔什变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次被数学的强大震惊，学到了新名词——快速沃尔什变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按位与为零的三元组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营摩天轮的最大利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4722,6 +4775,272 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FB92-4B40-8526-3ACF6F3972EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FB92-4B40-8526-3ACF6F3972EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FB92-4B40-8526-3ACF6F3972EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FB92-4B40-8526-3ACF6F3972EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'22年10月'!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>自己做出</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>看思路做出</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CV后看懂</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CV后没看懂</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'22年10月'!$B$34:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FB92-4B40-8526-3ACF6F3972EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-DE66-43DB-8074-6B4101B6B065}"/>
               </c:ext>
             </c:extLst>
@@ -4920,7 +5239,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5186,7 +5505,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5797,7 +6116,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6093,7 +6412,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -7059,7 +7378,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -7381,7 +7700,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -7981,6 +8300,272 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C3F3-4653-8090-0CAD4F5F0152}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C3F3-4653-8090-0CAD4F5F0152}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C3F3-4653-8090-0CAD4F5F0152}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C3F3-4653-8090-0CAD4F5F0152}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'23年3月 '!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>自己做出</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>看思路做出</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CV后看懂</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CV后没看懂</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'23年3月 '!$B$34:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C3F3-4653-8090-0CAD4F5F0152}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-5432-414B-9E23-6D1F7771AC9F}"/>
               </c:ext>
             </c:extLst>
@@ -8179,7 +8764,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8445,7 +9030,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8711,7 +9296,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8977,7 +9562,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -9243,7 +9828,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -9419,272 +10004,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-AC9A-490B-8EAF-6DCD3D5E951E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-FB92-4B40-8526-3ACF6F3972EF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-FB92-4B40-8526-3ACF6F3972EF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-FB92-4B40-8526-3ACF6F3972EF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-FB92-4B40-8526-3ACF6F3972EF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'22年10月'!$A$34:$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>自己做出</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>看思路做出</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CV后看懂</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CV后没看懂</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'22年10月'!$B$34:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-FB92-4B40-8526-3ACF6F3972EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10095,6 +10414,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11973,522 +12332,6 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13007,7 +12850,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13523,7 +13366,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14042,7 +13885,1042 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18776,7 +19654,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B986156F-9ED1-4570-A8AB-A348BC55566A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1532D9E8-7D58-4640-809B-7EA7B5403A47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18819,6 +19697,49 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B986156F-9ED1-4570-A8AB-A348BC55566A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3C04CE-0AC8-4037-AC37-2784F1DD01C6}"/>
             </a:ext>
           </a:extLst>
@@ -18842,7 +19763,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18991,7 +19912,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19079,23 +20000,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1233487</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D2F88F-5BFD-4744-B401-FBC7C5986271}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F28867-34DE-4B9B-83D4-D45E4951D029}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19138,7 +20059,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED94450-9981-4981-AE26-86B3843E9999}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D2F88F-5BFD-4744-B401-FBC7C5986271}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19181,6 +20102,49 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED94450-9981-4981-AE26-86B3843E9999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD317B8-08F9-4B7C-B4F3-0AABE7C0C50F}"/>
             </a:ext>
           </a:extLst>
@@ -19202,7 +20166,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19245,7 +20209,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19288,7 +20252,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19309,49 +20273,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53871368-4FD2-45AA-9BA5-393CBEE72D50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>661987</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1532D9E8-7D58-4640-809B-7EA7B5403A47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20680,6 +21601,873 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66C99BD-D55E-4901-84B9-182A84C14B14}">
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
+        <v>44835</v>
+      </c>
+      <c r="B2">
+        <v>1694</v>
+      </c>
+      <c r="C2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="22">
+        <v>44836</v>
+      </c>
+      <c r="B3">
+        <v>777</v>
+      </c>
+      <c r="C3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="22">
+        <v>44837</v>
+      </c>
+      <c r="B4">
+        <v>1784</v>
+      </c>
+      <c r="C4" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="22">
+        <v>44838</v>
+      </c>
+      <c r="B5">
+        <v>921</v>
+      </c>
+      <c r="C5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
+        <v>44839</v>
+      </c>
+      <c r="B6">
+        <v>811</v>
+      </c>
+      <c r="C6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="22">
+        <v>44840</v>
+      </c>
+      <c r="B7">
+        <v>927</v>
+      </c>
+      <c r="C7" t="s">
+        <v>689</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="22">
+        <v>44841</v>
+      </c>
+      <c r="B8">
+        <v>1800</v>
+      </c>
+      <c r="C8" t="s">
+        <v>691</v>
+      </c>
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="22">
+        <v>44842</v>
+      </c>
+      <c r="B9">
+        <v>870</v>
+      </c>
+      <c r="C9" t="s">
+        <v>693</v>
+      </c>
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" t="s">
+        <v>695</v>
+      </c>
+      <c r="G9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="22">
+        <v>44843</v>
+      </c>
+      <c r="B10">
+        <v>856</v>
+      </c>
+      <c r="C10" t="s">
+        <v>696</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
+        <v>44844</v>
+      </c>
+      <c r="B11">
+        <v>801</v>
+      </c>
+      <c r="C11" t="s">
+        <v>698</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="22">
+        <v>44845</v>
+      </c>
+      <c r="B12">
+        <v>1790</v>
+      </c>
+      <c r="C12" t="s">
+        <v>699</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="22">
+        <v>44846</v>
+      </c>
+      <c r="B13">
+        <v>817</v>
+      </c>
+      <c r="C13" t="s">
+        <v>701</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="22">
+        <v>44847</v>
+      </c>
+      <c r="B14">
+        <v>769</v>
+      </c>
+      <c r="C14" t="s">
+        <v>703</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="22">
+        <v>44848</v>
+      </c>
+      <c r="B15">
+        <v>940</v>
+      </c>
+      <c r="C15" t="s">
+        <v>706</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="22">
+        <v>44849</v>
+      </c>
+      <c r="B16">
+        <v>1441</v>
+      </c>
+      <c r="C16" t="s">
+        <v>705</v>
+      </c>
+      <c r="D16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="22">
+        <v>44850</v>
+      </c>
+      <c r="B17">
+        <v>886</v>
+      </c>
+      <c r="C17" t="s">
+        <v>707</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="22">
+        <v>44851</v>
+      </c>
+      <c r="B18">
+        <v>904</v>
+      </c>
+      <c r="C18" t="s">
+        <v>709</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="22">
+        <v>44852</v>
+      </c>
+      <c r="B19">
+        <v>902</v>
+      </c>
+      <c r="C19" t="s">
+        <v>716</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="22">
+        <v>44853</v>
+      </c>
+      <c r="B20">
+        <v>1700</v>
+      </c>
+      <c r="C20" t="s">
+        <v>714</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="22">
+        <v>44854</v>
+      </c>
+      <c r="B21">
+        <v>779</v>
+      </c>
+      <c r="C21" t="s">
+        <v>712</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>713</v>
+      </c>
+      <c r="H21" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="22">
+        <v>44855</v>
+      </c>
+      <c r="B22">
+        <v>901</v>
+      </c>
+      <c r="C22" t="s">
+        <v>711</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="22">
+        <v>44856</v>
+      </c>
+      <c r="B23">
+        <v>1235</v>
+      </c>
+      <c r="C23" t="s">
+        <v>718</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="22">
+        <v>44857</v>
+      </c>
+      <c r="B24">
+        <v>1768</v>
+      </c>
+      <c r="C24" t="s">
+        <v>721</v>
+      </c>
+      <c r="D24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="22">
+        <v>44858</v>
+      </c>
+      <c r="B25">
+        <v>915</v>
+      </c>
+      <c r="C25" t="s">
+        <v>722</v>
+      </c>
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="22">
+        <v>44859</v>
+      </c>
+      <c r="B26">
+        <v>934</v>
+      </c>
+      <c r="C26" t="s">
+        <v>723</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" t="s">
+        <v>209</v>
+      </c>
+      <c r="F26" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="22">
+        <v>44860</v>
+      </c>
+      <c r="B27">
+        <v>862</v>
+      </c>
+      <c r="C27" t="s">
+        <v>725</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="22">
+        <v>44861</v>
+      </c>
+      <c r="B28">
+        <v>1822</v>
+      </c>
+      <c r="C28" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="22">
+        <v>44862</v>
+      </c>
+      <c r="B29">
+        <v>907</v>
+      </c>
+      <c r="C29" t="s">
+        <v>728</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="22">
+        <v>44863</v>
+      </c>
+      <c r="B30">
+        <v>1773</v>
+      </c>
+      <c r="C30" t="s">
+        <v>730</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="22">
+        <v>44864</v>
+      </c>
+      <c r="B31">
+        <v>784</v>
+      </c>
+      <c r="C31" t="s">
+        <v>731</v>
+      </c>
+      <c r="D31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" t="s">
+        <v>732</v>
+      </c>
+      <c r="H31" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="22">
+        <v>44865</v>
+      </c>
+      <c r="B32">
+        <v>481</v>
+      </c>
+      <c r="C32" t="s">
+        <v>733</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <f>COUNTIF(E2:E32,"自己做出")</f>
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <f>COUNTIF(D2:D32,"简单")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <f>COUNTIF(E2:E32,"看思路写出")</f>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <f>COUNTIF(D2:D32,"中等")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <f>COUNTIF(E2:E32,"CV后看懂")</f>
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <f>COUNTIF(D2:D32,"困难")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <f>COUNTIF(E2:E32,"CV后没看懂")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="12"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="12"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="12"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="12"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="12"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="12"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="12"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="12"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="12"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="12"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="12"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="12"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="12"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="12"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="12"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="12"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="12"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="12"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="12"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="12"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="12"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="12"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="12"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="12"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A43:E46"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E33 E38:E42 E47:E1048576" xr:uid="{98E39D5D-970D-4E1B-9E01-B06B1311C903}">
+      <formula1>"自己做出,CV,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D16 D18:D42 D47:D1048576" xr:uid="{063D8D35-F21B-4521-9E04-3F7358A87FD9}">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16 E18:E32" xr:uid="{5F0D2FC4-1C9B-4FE0-AA32-017CAAD1B12A}">
+      <formula1>"自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC05C540-4225-444B-98D3-9BC7F0728058}">
   <dimension ref="A1:H72"/>
   <sheetViews>
@@ -21521,7 +23309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53503CBA-3042-452B-9B01-B94B07C13766}">
   <dimension ref="A1:H72"/>
   <sheetViews>
@@ -22350,13 +24138,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331E5CE9-5CE4-4273-8853-6A1A1E6D1622}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22949,7 +24737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3FEF5A-98B7-4803-938A-7690F2A45969}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I72"/>
@@ -23294,7 +25082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB84B29-E993-41B4-A125-3B08DA58CFA6}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G18"/>
@@ -24335,6 +26123,640 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0D3B30-15C5-41B8-A8AA-B41FFB7D2462}">
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
+        <v>44986</v>
+      </c>
+      <c r="B2">
+        <v>2373</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>1331</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="25">
+        <v>44987</v>
+      </c>
+      <c r="B3">
+        <v>2325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="25">
+        <v>44988</v>
+      </c>
+      <c r="B4">
+        <v>1487</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>1696</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
+        <v>44989</v>
+      </c>
+      <c r="B5">
+        <v>982</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2084</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
+        <v>44990</v>
+      </c>
+      <c r="B6">
+        <v>1599</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>1548</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="25">
+        <v>44991</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
+        <v>44992</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="25">
+        <v>44993</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="25">
+        <v>44994</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="25">
+        <v>44995</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="25">
+        <v>44996</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="25">
+        <v>44997</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="25">
+        <v>44998</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
+        <v>44999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="25">
+        <v>45000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="25">
+        <v>45001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="25">
+        <v>45002</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="25">
+        <v>45003</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="25">
+        <v>45004</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="25">
+        <v>45005</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="25">
+        <v>45006</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="25">
+        <v>45007</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="25">
+        <v>45008</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="25">
+        <v>45009</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="25">
+        <v>45010</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="25">
+        <v>45011</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="25">
+        <v>45012</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="25">
+        <v>45013</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="25">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="25">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="25">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="25"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <f>COUNTIF(F2:F32,"自己做出")</f>
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <f>COUNTIF(D2:D32,"简单")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <f>COUNTIF(F2:F32,"看思路写出")</f>
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <f>COUNTIF(D2:D32,"中等")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <f>COUNTIF(F2:F32,"CV后看懂")</f>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <f>COUNTIF(D2:D32,"困难")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <f>COUNTIF(F2:F32,"CV后没看懂")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="25"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="25"/>
+      <c r="D39" t="s">
+        <v>844</v>
+      </c>
+      <c r="E39">
+        <f>AVERAGE(E2:E32)</f>
+        <v>1664.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="25"/>
+      <c r="D40" t="s">
+        <v>859</v>
+      </c>
+      <c r="E40">
+        <f>MAX(E2:E32)</f>
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="25"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="25" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="25"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="25"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="25"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="25"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="25"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="25"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="25"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="25"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="25"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="25"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="25"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="25"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="25"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="25"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="25"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="25"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="25"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="25"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="25"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="25"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="25"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="25"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="25"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="25"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="25"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="25"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="25"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D49:D1048576" xr:uid="{87411763-B602-48B0-B4F6-BA6B236A6874}">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 E33 E38 E44:E1048576" xr:uid="{E5A4A276-9CDE-4A08-AFB7-ADB5CA9A9913}">
+      <formula1>"自己做出,CV,看思路写出"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{D3A45D66-2D49-4132-8D61-E5956FCF0CAD}">
+      <formula1>"自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B4EF25-1DEF-4C93-99CA-0D75FA661450}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H72"/>
@@ -25211,7 +27633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4189D3-F1C2-41D5-AFF0-50166F4BC652}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H72"/>
@@ -26120,7 +28542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F7AB7F-19BA-433D-94B4-F40C8CC2BB92}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H72"/>
@@ -26985,7 +29407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD428D8-44B8-4C0B-837F-1BC8B123B109}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H72"/>
@@ -27875,7 +30297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142AE3AC-21A9-4189-8718-937A02C856E4}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H72"/>
@@ -28733,7 +31155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17199AD8-2E3C-4B8A-9227-B6797C262E12}">
   <dimension ref="A1:H72"/>
   <sheetViews>
@@ -29599,871 +32021,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66C99BD-D55E-4901-84B9-182A84C14B14}">
-  <dimension ref="A1:H72"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:E46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
-        <v>44835</v>
-      </c>
-      <c r="B2">
-        <v>1694</v>
-      </c>
-      <c r="C2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="22">
-        <v>44836</v>
-      </c>
-      <c r="B3">
-        <v>777</v>
-      </c>
-      <c r="C3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="22">
-        <v>44837</v>
-      </c>
-      <c r="B4">
-        <v>1784</v>
-      </c>
-      <c r="C4" t="s">
-        <v>684</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="22">
-        <v>44838</v>
-      </c>
-      <c r="B5">
-        <v>921</v>
-      </c>
-      <c r="C5" t="s">
-        <v>685</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="22">
-        <v>44839</v>
-      </c>
-      <c r="B6">
-        <v>811</v>
-      </c>
-      <c r="C6" t="s">
-        <v>687</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="22">
-        <v>44840</v>
-      </c>
-      <c r="B7">
-        <v>927</v>
-      </c>
-      <c r="C7" t="s">
-        <v>689</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="22">
-        <v>44841</v>
-      </c>
-      <c r="B8">
-        <v>1800</v>
-      </c>
-      <c r="C8" t="s">
-        <v>691</v>
-      </c>
-      <c r="D8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="22">
-        <v>44842</v>
-      </c>
-      <c r="B9">
-        <v>870</v>
-      </c>
-      <c r="C9" t="s">
-        <v>693</v>
-      </c>
-      <c r="D9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" t="s">
-        <v>695</v>
-      </c>
-      <c r="G9" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
-        <v>44843</v>
-      </c>
-      <c r="B10">
-        <v>856</v>
-      </c>
-      <c r="C10" t="s">
-        <v>696</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
-        <v>44844</v>
-      </c>
-      <c r="B11">
-        <v>801</v>
-      </c>
-      <c r="C11" t="s">
-        <v>698</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="22">
-        <v>44845</v>
-      </c>
-      <c r="B12">
-        <v>1790</v>
-      </c>
-      <c r="C12" t="s">
-        <v>699</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="22">
-        <v>44846</v>
-      </c>
-      <c r="B13">
-        <v>817</v>
-      </c>
-      <c r="C13" t="s">
-        <v>701</v>
-      </c>
-      <c r="D13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
-        <v>44847</v>
-      </c>
-      <c r="B14">
-        <v>769</v>
-      </c>
-      <c r="C14" t="s">
-        <v>703</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="22">
-        <v>44848</v>
-      </c>
-      <c r="B15">
-        <v>940</v>
-      </c>
-      <c r="C15" t="s">
-        <v>706</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="22">
-        <v>44849</v>
-      </c>
-      <c r="B16">
-        <v>1441</v>
-      </c>
-      <c r="C16" t="s">
-        <v>705</v>
-      </c>
-      <c r="D16" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
-        <v>44850</v>
-      </c>
-      <c r="B17">
-        <v>886</v>
-      </c>
-      <c r="C17" t="s">
-        <v>707</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G17" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="22">
-        <v>44851</v>
-      </c>
-      <c r="B18">
-        <v>904</v>
-      </c>
-      <c r="C18" t="s">
-        <v>709</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="22">
-        <v>44852</v>
-      </c>
-      <c r="B19">
-        <v>902</v>
-      </c>
-      <c r="C19" t="s">
-        <v>716</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="22">
-        <v>44853</v>
-      </c>
-      <c r="B20">
-        <v>1700</v>
-      </c>
-      <c r="C20" t="s">
-        <v>714</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="22">
-        <v>44854</v>
-      </c>
-      <c r="B21">
-        <v>779</v>
-      </c>
-      <c r="C21" t="s">
-        <v>712</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>713</v>
-      </c>
-      <c r="H21" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="22">
-        <v>44855</v>
-      </c>
-      <c r="B22">
-        <v>901</v>
-      </c>
-      <c r="C22" t="s">
-        <v>711</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F22" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="22">
-        <v>44856</v>
-      </c>
-      <c r="B23">
-        <v>1235</v>
-      </c>
-      <c r="C23" t="s">
-        <v>718</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="22">
-        <v>44857</v>
-      </c>
-      <c r="B24">
-        <v>1768</v>
-      </c>
-      <c r="C24" t="s">
-        <v>721</v>
-      </c>
-      <c r="D24" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="22">
-        <v>44858</v>
-      </c>
-      <c r="B25">
-        <v>915</v>
-      </c>
-      <c r="C25" t="s">
-        <v>722</v>
-      </c>
-      <c r="D25" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="22">
-        <v>44859</v>
-      </c>
-      <c r="B26">
-        <v>934</v>
-      </c>
-      <c r="C26" t="s">
-        <v>723</v>
-      </c>
-      <c r="D26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E26" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="22">
-        <v>44860</v>
-      </c>
-      <c r="B27">
-        <v>862</v>
-      </c>
-      <c r="C27" t="s">
-        <v>725</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="22">
-        <v>44861</v>
-      </c>
-      <c r="B28">
-        <v>1822</v>
-      </c>
-      <c r="C28" t="s">
-        <v>727</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="22">
-        <v>44862</v>
-      </c>
-      <c r="B29">
-        <v>907</v>
-      </c>
-      <c r="C29" t="s">
-        <v>728</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>210</v>
-      </c>
-      <c r="F29" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="22">
-        <v>44863</v>
-      </c>
-      <c r="B30">
-        <v>1773</v>
-      </c>
-      <c r="C30" t="s">
-        <v>730</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="22">
-        <v>44864</v>
-      </c>
-      <c r="B31">
-        <v>784</v>
-      </c>
-      <c r="C31" t="s">
-        <v>731</v>
-      </c>
-      <c r="D31" t="s">
-        <v>211</v>
-      </c>
-      <c r="E31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" t="s">
-        <v>732</v>
-      </c>
-      <c r="H31" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="22">
-        <v>44865</v>
-      </c>
-      <c r="B32">
-        <v>481</v>
-      </c>
-      <c r="C32" t="s">
-        <v>733</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>213</v>
-      </c>
-      <c r="F32" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <f>COUNTIF(E2:E32,"自己做出")</f>
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34">
-        <f>COUNTIF(D2:D32,"简单")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35">
-        <f>COUNTIF(E2:E32,"看思路写出")</f>
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35">
-        <f>COUNTIF(D2:D32,"中等")</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36">
-        <f>COUNTIF(E2:E32,"CV后看懂")</f>
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36">
-        <f>COUNTIF(D2:D32,"困难")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37">
-        <f>COUNTIF(E2:E32,"CV后没看懂")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="12"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="12"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="12"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="12"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="12"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="12"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="12"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="12"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="12"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="12"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="12"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="12"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="12"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="12"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="12"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="12"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="12"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="12"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="12"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="12"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="12"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="12"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="12"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A43:E46"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E33 E38:E42 E47:E1048576" xr:uid="{98E39D5D-970D-4E1B-9E01-B06B1311C903}">
-      <formula1>"自己做出,CV,看思路写出"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D16 D18:D42 D47:D1048576" xr:uid="{063D8D35-F21B-4521-9E04-3F7358A87FD9}">
-      <formula1>"简单,中等,困难"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16 E18:E32" xr:uid="{5F0D2FC4-1C9B-4FE0-AA32-017CAAD1B12A}">
-      <formula1>"自己做出,CV后看懂,CV后没看懂,看思路写出"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470B6487-8ED6-484C-80DB-20DD409BBB95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCD7B21-4F3C-4A95-BFA1-F39AF9BACAB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1076">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4281,6 +4281,50 @@
   </si>
   <si>
     <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使字符串平衡的最少删除次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花括号展开II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指Offer 47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼物的最大价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8391,16 +8435,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26127,12 +26171,13 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
@@ -26290,266 +26335,179 @@
       <c r="A7" s="25">
         <v>44991</v>
       </c>
+      <c r="B7">
+        <v>1653</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1065</v>
+      </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>1793</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>44992</v>
       </c>
+      <c r="B8">
+        <v>1096</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1067</v>
+      </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>1068</v>
+      </c>
+      <c r="E8">
+        <v>2348</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>1069</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>44993</v>
       </c>
+      <c r="B9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1072</v>
+      </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>1073</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>1074</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>44994</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>44995</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>44996</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>44997</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>44998</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>44999</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>45000</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>45001</v>
       </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>45002</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>45003</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>45004</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>45005</v>
       </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>45006</v>
       </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>45007</v>
       </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>45008</v>
       </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>45009</v>
       </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>45010</v>
       </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>45011</v>
       </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>45012</v>
       </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>45013</v>
       </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>45014</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>45015</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>45016</v>
       </c>
@@ -26563,14 +26521,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -26586,7 +26544,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -26595,14 +26553,14 @@
       </c>
       <c r="B36">
         <f>COUNTIF(F2:F32,"CV后看懂")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -26611,7 +26569,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(F2:F32,"CV后没看懂")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -26624,7 +26582,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1664.75</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -26634,7 +26592,7 @@
       </c>
       <c r="E40">
         <f>MAX(E2:E32)</f>
-        <v>2084</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCD7B21-4F3C-4A95-BFA1-F39AF9BACAB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D83FF5-FA4C-4CF8-A961-BE258250AFC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1103">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4325,6 +4325,114 @@
   </si>
   <si>
     <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使数组和能被P整除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题17.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母与数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和+哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到K个黑块的最少涂色次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学+前缀和+哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计子树中城市之间最大距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态压缩+ 动态规划/dfs+bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求树直径的方式：一次dfs找到最远节点，从最远节点dfs找最远节点为树直径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢得比赛需要的最少训练时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定行和列的和求可行矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大网络秩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8435,13 +8543,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -26170,8 +26278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0D3B30-15C5-41B8-A8AA-B41FFB7D2462}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26182,8 +26290,8 @@
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26401,36 +26509,162 @@
       <c r="A10" s="25">
         <v>44994</v>
       </c>
+      <c r="B10">
+        <v>2379</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E10">
+        <v>1360</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>44995</v>
       </c>
+      <c r="B11">
+        <v>1590</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E11">
+        <v>2038</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>44996</v>
       </c>
+      <c r="B12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1082</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>44997</v>
       </c>
+      <c r="B13">
+        <v>1617</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E13">
+        <v>2308</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>44998</v>
       </c>
+      <c r="B14">
+        <v>2383</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E14">
+        <v>1413</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>44999</v>
       </c>
+      <c r="B15">
+        <v>1605</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E15">
+        <v>1867</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1096</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>45000</v>
       </c>
+      <c r="B16">
+        <v>1615</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E16">
+        <v>1521</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
@@ -26521,14 +26755,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -26544,7 +26778,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -26553,14 +26787,14 @@
       </c>
       <c r="B36">
         <f>COUNTIF(F2:F32,"CV后看懂")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -26582,7 +26816,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1800</v>
+        <v>1775.5833333333333</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D83FF5-FA4C-4CF8-A961-BE258250AFC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7773F7-8B23-4441-ACD7-B06EFD20E537}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1118">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4433,6 +4433,66 @@
   </si>
   <si>
     <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计中位数为K的子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和+哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和有限的最长子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序+二分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割两个字符串得到回文串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行操作后字典序最小的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裴蜀定理/ bfs+哈希</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8543,13 +8603,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -26278,7 +26338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0D3B30-15C5-41B8-A8AA-B41FFB7D2462}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -26666,82 +26726,154 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>45001</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>2488</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E17">
+        <v>1998</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>45002</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>2389</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E18">
+        <v>1387</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>45003</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>1616</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E19">
+        <v>1868</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>45004</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>1625</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E20">
+        <v>1992</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>45005</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>45006</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>45007</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>45008</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>45009</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>45010</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>45011</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>45012</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>45013</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>45014</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>45015</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>45016</v>
       </c>
@@ -26755,14 +26887,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -26778,7 +26910,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -26787,14 +26919,14 @@
       </c>
       <c r="B36">
         <f>COUNTIF(F2:F32,"CV后看懂")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -26816,7 +26948,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1775.5833333333333</v>
+        <v>1784.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7773F7-8B23-4441-ACD7-B06EFD20E537}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B7271-9231-4A7F-B83E-8AEF13F3E895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="1128">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4493,6 +4493,46 @@
   </si>
   <si>
     <t>裴蜀定理/ bfs+哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少有1位重复的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数位dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习数位dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无矛盾的最佳球队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序+dp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8603,7 +8643,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -26339,7 +26379,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26726,7 +26766,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>45001</v>
       </c>
@@ -26749,7 +26789,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>45002</v>
       </c>
@@ -26772,7 +26812,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>45003</v>
       </c>
@@ -26795,7 +26835,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>45004</v>
       </c>
@@ -26818,62 +26858,116 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>45005</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>1012</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E21">
+        <v>2230</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>45006</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>2469</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E22">
+        <v>1153</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>45007</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>1626</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E23">
+        <v>2027</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>45008</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>45009</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>45010</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>45011</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>45012</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>45013</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>45014</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>45015</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>45016</v>
       </c>
@@ -26887,14 +26981,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -26910,7 +27004,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -26926,7 +27020,7 @@
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -26948,7 +27042,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1784.5</v>
+        <v>1787.4736842105262</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B7271-9231-4A7F-B83E-8AEF13F3E895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26B00A7-2867-4F06-96AD-5064A3401560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1140">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4264,10 +4264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>再次被数学的强大震惊，学到了新名词——快速沃尔什变换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按位与为零的三元组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4533,6 +4529,58 @@
   </si>
   <si>
     <t>排序+dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等差子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n)验证重排等差数列的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC自动机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除最短的子数组使剩余数组有序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和相等的子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次被数学的强大震惊，学到了新名词——快速沃尔什变换。第一次接触AC自动机。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8643,16 +8691,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26378,8 +26426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0D3B30-15C5-41B8-A8AA-B41FFB7D2462}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26498,7 +26546,7 @@
         <v>982</v>
       </c>
       <c r="C5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -26524,7 +26572,7 @@
         <v>1599</v>
       </c>
       <c r="C6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -26533,10 +26581,10 @@
         <v>1548</v>
       </c>
       <c r="F6" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G6" t="s">
         <v>1063</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -26547,7 +26595,7 @@
         <v>1653</v>
       </c>
       <c r="C7" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -26559,7 +26607,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -26570,19 +26618,19 @@
         <v>1096</v>
       </c>
       <c r="C8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D8" t="s">
         <v>1067</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1068</v>
       </c>
       <c r="E8">
         <v>2348</v>
       </c>
       <c r="F8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G8" t="s">
         <v>1069</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -26590,19 +26638,19 @@
         <v>44993</v>
       </c>
       <c r="B9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C9" t="s">
         <v>1071</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1072</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>1073</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>1074</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -26613,19 +26661,19 @@
         <v>2379</v>
       </c>
       <c r="C10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D10" t="s">
         <v>1083</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1084</v>
       </c>
       <c r="E10">
         <v>1360</v>
       </c>
       <c r="F10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -26636,10 +26684,10 @@
         <v>1590</v>
       </c>
       <c r="C11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D11" t="s">
         <v>1076</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1077</v>
       </c>
       <c r="E11">
         <v>2038</v>
@@ -26648,7 +26696,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -26656,19 +26704,19 @@
         <v>44996</v>
       </c>
       <c r="B12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C12" t="s">
         <v>1078</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1079</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>1080</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>1081</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -26679,10 +26727,10 @@
         <v>1617</v>
       </c>
       <c r="C13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D13" t="s">
         <v>1087</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1088</v>
       </c>
       <c r="E13">
         <v>2308</v>
@@ -26691,10 +26739,10 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H13" t="s">
         <v>1089</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -26705,19 +26753,19 @@
         <v>2383</v>
       </c>
       <c r="C14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D14" t="s">
         <v>1091</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1092</v>
       </c>
       <c r="E14">
         <v>1413</v>
       </c>
       <c r="F14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G14" t="s">
         <v>1093</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -26728,19 +26776,19 @@
         <v>1605</v>
       </c>
       <c r="C15" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D15" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E15">
         <v>1867</v>
       </c>
       <c r="F15" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G15" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -26751,19 +26799,19 @@
         <v>1615</v>
       </c>
       <c r="C16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E16">
         <v>1521</v>
       </c>
       <c r="F16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G16" t="s">
         <v>1101</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -26774,10 +26822,10 @@
         <v>2488</v>
       </c>
       <c r="C17" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E17">
         <v>1998</v>
@@ -26786,7 +26834,7 @@
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -26797,19 +26845,19 @@
         <v>2389</v>
       </c>
       <c r="C18" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D18" t="s">
         <v>1106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1107</v>
       </c>
       <c r="E18">
         <v>1387</v>
       </c>
       <c r="F18" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G18" t="s">
         <v>1108</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -26820,19 +26868,19 @@
         <v>1616</v>
       </c>
       <c r="C19" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D19" t="s">
         <v>1110</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1111</v>
       </c>
       <c r="E19">
         <v>1868</v>
       </c>
       <c r="F19" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G19" t="s">
         <v>1112</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -26843,19 +26891,19 @@
         <v>1625</v>
       </c>
       <c r="C20" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D20" t="s">
         <v>1114</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1115</v>
       </c>
       <c r="E20">
         <v>1992</v>
       </c>
       <c r="F20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G20" t="s">
         <v>1116</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -26866,10 +26914,10 @@
         <v>1012</v>
       </c>
       <c r="C21" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D21" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E21">
         <v>2230</v>
@@ -26878,10 +26926,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H21" t="s">
         <v>1120</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -26892,16 +26940,16 @@
         <v>2469</v>
       </c>
       <c r="C22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D22" t="s">
         <v>1125</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1126</v>
       </c>
       <c r="E22">
         <v>1153</v>
       </c>
       <c r="F22" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -26912,40 +26960,115 @@
         <v>1626</v>
       </c>
       <c r="C23" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D23" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E23">
         <v>2027</v>
       </c>
       <c r="F23" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G23" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>45008</v>
       </c>
+      <c r="B24">
+        <v>1630</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E24">
+        <v>1421</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1130</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>45009</v>
       </c>
+      <c r="B25">
+        <v>1032</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E25">
+        <v>1970</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1133</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>45010</v>
       </c>
+      <c r="B26">
+        <v>1574</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E26">
+        <v>1931</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>45011</v>
       </c>
+      <c r="B27">
+        <v>2395</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E27">
+        <v>1249</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
@@ -26981,14 +27104,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -26997,14 +27120,14 @@
       </c>
       <c r="B35">
         <f>COUNTIF(F2:F32,"看思路写出")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -27020,7 +27143,7 @@
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -27029,7 +27152,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(F2:F32,"CV后没看懂")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -27042,7 +27165,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1787.4736842105262</v>
+        <v>1762.304347826087</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -27065,7 +27188,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="25" t="s">
-        <v>1060</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26B00A7-2867-4F06-96AD-5064A3401560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55309E6E-F5E0-454B-B616-710E66161A34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="1154">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4581,6 +4581,62 @@
   </si>
   <si>
     <t>再次被数学的强大震惊，学到了新名词——快速沃尔什变换。第一次接触AC自动机。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计只差一个字符的子串数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计字典序元音字符串的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举/dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp/数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短公共超序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两点之间不包含任何点的最宽垂直区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8691,13 +8747,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -26427,7 +26483,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27074,21 +27130,93 @@
       <c r="A28" s="25">
         <v>45012</v>
       </c>
+      <c r="B28">
+        <v>1638</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E28">
+        <v>1744</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1145</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>45013</v>
       </c>
+      <c r="B29">
+        <v>1092</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E29">
+        <v>1976</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1144</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>45014</v>
       </c>
+      <c r="B30">
+        <v>1641</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E30">
+        <v>1519</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1147</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>45015</v>
       </c>
+      <c r="B31">
+        <v>1637</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E31">
+        <v>1486</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
@@ -27104,7 +27232,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -27127,7 +27255,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -27136,14 +27264,14 @@
       </c>
       <c r="B36">
         <f>COUNTIF(F2:F32,"CV后看懂")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36">
         <f>COUNTIF(D2:D32,"困难")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -27165,7 +27293,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1762.304347826087</v>
+        <v>1750.2962962962963</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55309E6E-F5E0-454B-B616-710E66161A34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B564A-B8B3-4A0B-897B-884DDC3CA0AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="1158">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4637,6 +4637,22 @@
   </si>
   <si>
     <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术三元组的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希/三指针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8747,7 +8763,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -26483,7 +26499,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27222,6 +27238,24 @@
       <c r="A32" s="25">
         <v>45016</v>
       </c>
+      <c r="B32">
+        <v>2367</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E32">
+        <v>1203</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1157</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="25"/>
@@ -27232,14 +27266,14 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34">
         <f>COUNTIF(D2:D32,"简单")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -27293,7 +27327,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1750.2962962962963</v>
+        <v>1730.75</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC67F817-8E3F-4CFD-873F-090E77674081}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33163B86-27DB-4D51-A22E-23C1153EE61D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="1071">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4277,6 +4277,34 @@
   </si>
   <si>
     <t>记忆化搜索，区间dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换一次的先前排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并石头的最低成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公因子的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和+ 记忆化搜索/dp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8650,13 +8678,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -27085,7 +27113,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27132,7 +27160,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="24">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B2">
         <v>831</v>
@@ -27155,7 +27183,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
-        <v>44987</v>
+        <v>45018</v>
       </c>
       <c r="B3">
         <v>1039</v>
@@ -27181,40 +27209,73 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
-        <v>44988</v>
+        <v>45019</v>
+      </c>
+      <c r="B4">
+        <v>1053</v>
       </c>
       <c r="C4" t="s">
-        <v>956</v>
+        <v>1065</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
+      <c r="E4">
+        <v>1633</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
-        <v>44989</v>
+        <v>45020</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>961</v>
+        <v>1067</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
+      <c r="E5">
+        <v>2422</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
-        <v>44990</v>
+        <v>45021</v>
+      </c>
+      <c r="B6">
+        <v>2427</v>
       </c>
       <c r="C6" t="s">
-        <v>962</v>
+        <v>1068</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1172</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
-        <v>44991</v>
+        <v>45022</v>
       </c>
       <c r="C7" t="s">
         <v>965</v>
@@ -27225,7 +27286,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
-        <v>44992</v>
+        <v>45023</v>
       </c>
       <c r="C8" t="s">
         <v>967</v>
@@ -27236,7 +27297,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
-        <v>44993</v>
+        <v>45024</v>
       </c>
       <c r="C9" t="s">
         <v>972</v>
@@ -27247,7 +27308,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
-        <v>44994</v>
+        <v>45025</v>
       </c>
       <c r="C10" t="s">
         <v>983</v>
@@ -27258,7 +27319,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
-        <v>44995</v>
+        <v>45026</v>
       </c>
       <c r="C11" t="s">
         <v>976</v>
@@ -27269,7 +27330,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
-        <v>44996</v>
+        <v>45027</v>
       </c>
       <c r="C12" t="s">
         <v>979</v>
@@ -27280,7 +27341,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
-        <v>44997</v>
+        <v>45028</v>
       </c>
       <c r="C13" t="s">
         <v>987</v>
@@ -27291,7 +27352,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
-        <v>44998</v>
+        <v>45029</v>
       </c>
       <c r="C14" t="s">
         <v>991</v>
@@ -27302,7 +27363,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
-        <v>44999</v>
+        <v>45030</v>
       </c>
       <c r="C15" t="s">
         <v>998</v>
@@ -27313,7 +27374,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
-        <v>45000</v>
+        <v>45031</v>
       </c>
       <c r="C16" t="s">
         <v>1000</v>
@@ -27324,7 +27385,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
-        <v>45001</v>
+        <v>45032</v>
       </c>
       <c r="C17" t="s">
         <v>1004</v>
@@ -27335,7 +27396,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
-        <v>45002</v>
+        <v>45033</v>
       </c>
       <c r="C18" t="s">
         <v>1006</v>
@@ -27346,7 +27407,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
-        <v>45003</v>
+        <v>45034</v>
       </c>
       <c r="C19" t="s">
         <v>1010</v>
@@ -27357,7 +27418,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
-        <v>45004</v>
+        <v>45035</v>
       </c>
       <c r="C20" t="s">
         <v>1014</v>
@@ -27368,7 +27429,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
-        <v>45005</v>
+        <v>45036</v>
       </c>
       <c r="C21" t="s">
         <v>1019</v>
@@ -27379,7 +27440,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
-        <v>45006</v>
+        <v>45037</v>
       </c>
       <c r="C22" t="s">
         <v>1025</v>
@@ -27390,7 +27451,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
-        <v>45007</v>
+        <v>45038</v>
       </c>
       <c r="C23" t="s">
         <v>1024</v>
@@ -27401,7 +27462,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
-        <v>45008</v>
+        <v>45039</v>
       </c>
       <c r="C24" t="s">
         <v>1028</v>
@@ -27412,7 +27473,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
-        <v>45009</v>
+        <v>45040</v>
       </c>
       <c r="C25" t="s">
         <v>1032</v>
@@ -27423,7 +27484,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
-        <v>45010</v>
+        <v>45041</v>
       </c>
       <c r="C26" t="s">
         <v>1035</v>
@@ -27434,7 +27495,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
-        <v>45011</v>
+        <v>45042</v>
       </c>
       <c r="C27" t="s">
         <v>1037</v>
@@ -27445,7 +27506,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
-        <v>45012</v>
+        <v>45043</v>
       </c>
       <c r="C28" t="s">
         <v>1041</v>
@@ -27456,7 +27517,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
-        <v>45013</v>
+        <v>45044</v>
       </c>
       <c r="C29" t="s">
         <v>1049</v>
@@ -27467,7 +27528,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
-        <v>45014</v>
+        <v>45045</v>
       </c>
       <c r="C30" t="s">
         <v>1043</v>
@@ -27478,7 +27539,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
-        <v>45015</v>
+        <v>45046</v>
       </c>
       <c r="C31" t="s">
         <v>1051</v>
@@ -27488,15 +27549,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="24">
-        <v>45016</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
+      <c r="A32" s="24"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="24"/>
@@ -27507,7 +27560,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -27530,7 +27583,7 @@
       </c>
       <c r="E35">
         <f>COUNTIF(D2:D32,"中等")</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -27539,7 +27592,7 @@
       </c>
       <c r="B36">
         <f>COUNTIF(F2:F32,"CV后看懂")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
@@ -27568,7 +27621,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1790</v>
+        <v>1761.4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -27578,7 +27631,7 @@
       </c>
       <c r="E40">
         <f>MAX(E2:E32)</f>
-        <v>2130</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33163B86-27DB-4D51-A22E-23C1153EE61D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14312FF1-1ADF-4815-8195-3D97A214FA6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1077">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4305,6 +4305,30 @@
   </si>
   <si>
     <t>前缀和+ 记忆化搜索/dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负二进制转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动石子直到连续II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造+双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小的必要团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查相同字母间的距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8678,7 +8702,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -8687,7 +8711,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27112,8 +27136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2E165-0159-4FD1-84E9-3E99AEFBD7CC}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27277,44 +27301,89 @@
       <c r="A7" s="24">
         <v>45022</v>
       </c>
+      <c r="B7">
+        <v>1017</v>
+      </c>
       <c r="C7" t="s">
-        <v>965</v>
+        <v>1071</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
+      </c>
+      <c r="E7">
+        <v>1697</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>45023</v>
       </c>
+      <c r="B8">
+        <v>1040</v>
+      </c>
       <c r="C8" t="s">
-        <v>967</v>
+        <v>1072</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>2455</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>45024</v>
       </c>
+      <c r="B9">
+        <v>1125</v>
+      </c>
       <c r="C9" t="s">
-        <v>972</v>
+        <v>1074</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>2250</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>45025</v>
       </c>
+      <c r="B10">
+        <v>2399</v>
+      </c>
       <c r="C10" t="s">
-        <v>983</v>
+        <v>1075</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1243</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -27560,7 +27629,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -27608,7 +27677,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(F2:F32,"CV后没看懂")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -27621,7 +27690,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1761.4</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -27631,7 +27700,7 @@
       </c>
       <c r="E40">
         <f>MAX(E2:E32)</f>
-        <v>2422</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14312FF1-1ADF-4815-8195-3D97A214FA6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4213FE-1F76-41DF-ACCC-0558C8618A3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1083">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4329,6 +4329,30 @@
   </si>
   <si>
     <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困于环中的机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟/找规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表中的下一个更大节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段氏回文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8702,10 +8726,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -27137,7 +27161,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27390,33 +27414,63 @@
       <c r="A11" s="24">
         <v>45026</v>
       </c>
+      <c r="B11">
+        <v>1019</v>
+      </c>
       <c r="C11" t="s">
-        <v>976</v>
+        <v>1079</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
+      </c>
+      <c r="E11">
+        <v>1570</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>45027</v>
       </c>
+      <c r="B12">
+        <v>1041</v>
+      </c>
       <c r="C12" t="s">
-        <v>979</v>
+        <v>1077</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
+      </c>
+      <c r="E12">
+        <v>1541</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>45028</v>
       </c>
+      <c r="B13">
+        <v>1147</v>
+      </c>
       <c r="C13" t="s">
-        <v>987</v>
+        <v>1082</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
+      </c>
+      <c r="E13">
+        <v>1912</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -27629,7 +27683,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -27645,7 +27699,7 @@
       </c>
       <c r="B35">
         <f>COUNTIF(F2:F32,"看思路写出")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -27690,7 +27744,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1828</v>
+        <v>1789.5833333333333</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4213FE-1F76-41DF-ACCC-0558C8618A3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51242358-D3E1-4C51-81CB-1026A6E0AF2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1095">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4353,6 +4353,54 @@
   </si>
   <si>
     <t>段氏回文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驼峰式匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现最频繁的偶数元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心+双指针 / 滚动哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不邻接植花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wavelettree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子数组中占绝大多数的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机化+二分查找 / 摩尔投票+线段树 / wavelet树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8726,7 +8774,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -8735,7 +8783,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27161,7 +27209,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27172,7 +27220,7 @@
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -27472,52 +27520,109 @@
       <c r="E13">
         <v>1912</v>
       </c>
+      <c r="F13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>45029</v>
       </c>
+      <c r="B14">
+        <v>2404</v>
+      </c>
       <c r="C14" t="s">
-        <v>991</v>
+        <v>1086</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
+      </c>
+      <c r="E14">
+        <v>1259</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
         <v>45030</v>
       </c>
+      <c r="B15">
+        <v>1023</v>
+      </c>
       <c r="C15" t="s">
-        <v>998</v>
+        <v>1083</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
+      </c>
+      <c r="E15">
+        <v>1537</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
         <v>45031</v>
       </c>
+      <c r="B16">
+        <v>1042</v>
+      </c>
       <c r="C16" t="s">
-        <v>1000</v>
+        <v>1089</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>1712</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>45032</v>
       </c>
+      <c r="B17">
+        <v>1157</v>
+      </c>
       <c r="C17" t="s">
-        <v>1004</v>
+        <v>1093</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>2205</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
         <v>45033</v>
       </c>
@@ -27528,7 +27633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>45034</v>
       </c>
@@ -27539,7 +27644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>45035</v>
       </c>
@@ -27550,7 +27655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
         <v>45036</v>
       </c>
@@ -27561,7 +27666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>45037</v>
       </c>
@@ -27572,7 +27677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>45038</v>
       </c>
@@ -27583,7 +27688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>45039</v>
       </c>
@@ -27594,7 +27699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
         <v>45040</v>
       </c>
@@ -27605,7 +27710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>45041</v>
       </c>
@@ -27616,7 +27721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>45042</v>
       </c>
@@ -27627,7 +27732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>45043</v>
       </c>
@@ -27638,7 +27743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>45044</v>
       </c>
@@ -27649,7 +27754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>45045</v>
       </c>
@@ -27660,7 +27765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>45046</v>
       </c>
@@ -27671,7 +27776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="24"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -27683,7 +27788,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -27731,7 +27836,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(F2:F32,"CV后没看懂")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -27744,7 +27849,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1789.5833333333333</v>
+        <v>1761.75</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51242358-D3E1-4C51-81CB-1026A6E0AF2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D53BF-BF5E-4CC6-A5FA-379A7BD224D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1103">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4401,6 +4401,38 @@
   </si>
   <si>
     <t>随机化+二分查找 / 摩尔投票+线段树 / wavelet树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计共同度过的日子数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点与其祖先之间的最大差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听说了新的数据结构wavelet tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分隔数组以得到最大和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆化搜索/dp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8774,10 +8806,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -27208,8 +27240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2E165-0159-4FD1-84E9-3E99AEFBD7CC}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27626,33 +27658,66 @@
       <c r="A18" s="24">
         <v>45033</v>
       </c>
+      <c r="B18">
+        <v>2409</v>
+      </c>
       <c r="C18" t="s">
-        <v>1006</v>
+        <v>1095</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
+      </c>
+      <c r="E18">
+        <v>1562</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>45034</v>
       </c>
+      <c r="B19">
+        <v>1026</v>
+      </c>
       <c r="C19" t="s">
-        <v>1010</v>
+        <v>1097</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
+      </c>
+      <c r="E19">
+        <v>1446</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>45035</v>
       </c>
+      <c r="B20">
+        <v>1043</v>
+      </c>
       <c r="C20" t="s">
-        <v>1014</v>
+        <v>1101</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
+      </c>
+      <c r="E20">
+        <v>1916</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -27788,7 +27853,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -27804,7 +27869,7 @@
       </c>
       <c r="B35">
         <f>COUNTIF(F2:F32,"看思路写出")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -27849,7 +27914,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1761.75</v>
+        <v>1742.7368421052631</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -27872,7 +27937,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="24" t="s">
-        <v>1040</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D53BF-BF5E-4CC6-A5FA-379A7BD224D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AAA25A-4FB2-4D73-A6C0-714F8F354E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1111">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4433,6 +4433,38 @@
   </si>
   <si>
     <t>记忆化搜索/dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使数组严格递增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小偶倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长等差数列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆化搜索/dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充书架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8806,7 +8838,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -8815,7 +8847,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27241,7 +27273,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27724,44 +27756,89 @@
       <c r="A21" s="24">
         <v>45036</v>
       </c>
+      <c r="B21">
+        <v>1187</v>
+      </c>
       <c r="C21" t="s">
-        <v>1019</v>
+        <v>1103</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
+      </c>
+      <c r="E21">
+        <v>2315</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
         <v>45037</v>
       </c>
+      <c r="B22">
+        <v>2413</v>
+      </c>
       <c r="C22" t="s">
-        <v>1025</v>
+        <v>1104</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
+      </c>
+      <c r="E22">
+        <v>1144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
         <v>45038</v>
       </c>
+      <c r="B23">
+        <v>1027</v>
+      </c>
       <c r="C23" t="s">
-        <v>1024</v>
+        <v>1106</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
+      </c>
+      <c r="E23">
+        <v>1758</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
         <v>45039</v>
       </c>
+      <c r="B24">
+        <v>1105</v>
+      </c>
       <c r="C24" t="s">
-        <v>1028</v>
+        <v>1109</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
+      </c>
+      <c r="E24">
+        <v>2014</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -27853,7 +27930,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -27901,7 +27978,7 @@
       </c>
       <c r="B37">
         <f>COUNTIF(F2:F32,"CV后没看懂")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -27914,7 +27991,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1742.7368421052631</v>
+        <v>1754.0434782608695</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AAA25A-4FB2-4D73-A6C0-714F8F354E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172F09B8-1D2E-4608-A122-891B15BDD798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1119">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4465,6 +4465,38 @@
   </si>
   <si>
     <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按字典序排在最后的子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按身高排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个非重叠子数组的最大和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp+滑动窗口 / 前缀和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8838,7 +8870,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -27273,7 +27305,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27845,33 +27877,69 @@
       <c r="A25" s="24">
         <v>45040</v>
       </c>
+      <c r="B25">
+        <v>1163</v>
+      </c>
       <c r="C25" t="s">
-        <v>1032</v>
+        <v>1111</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
+      </c>
+      <c r="E25">
+        <v>1864</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
         <v>45041</v>
       </c>
+      <c r="B26">
+        <v>2418</v>
+      </c>
       <c r="C26" t="s">
-        <v>1035</v>
+        <v>1113</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>1193</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>45042</v>
       </c>
+      <c r="B27">
+        <v>1031</v>
+      </c>
       <c r="C27" t="s">
-        <v>1037</v>
+        <v>1116</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>1680</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -27930,7 +27998,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -27991,7 +28059,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1754.0434782608695</v>
+        <v>1733.8461538461538</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">

--- a/23年力扣每日一题做题情况.xlsx
+++ b/23年力扣每日一题做题情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172F09B8-1D2E-4608-A122-891B15BDD798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829795B-A381-4D66-87D9-25333D29BF47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1130">
   <si>
     <t>算法和数据结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4497,6 +4497,50 @@
   </si>
   <si>
     <t>dp+滑动窗口 / 前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长字符串链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp/记忆化搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐盘栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动石子直到连续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除字符使频率相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己做出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8870,7 +8914,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -27305,7 +27349,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27946,44 +27990,92 @@
       <c r="A28" s="24">
         <v>45043</v>
       </c>
+      <c r="B28">
+        <v>1048</v>
+      </c>
       <c r="C28" t="s">
-        <v>1041</v>
+        <v>1119</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
+      </c>
+      <c r="E28">
+        <v>1599</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>45044</v>
       </c>
+      <c r="B29">
+        <v>1172</v>
+      </c>
       <c r="C29" t="s">
-        <v>1049</v>
+        <v>1124</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
+      </c>
+      <c r="E29">
+        <v>2109</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>45045</v>
       </c>
+      <c r="B30">
+        <v>2423</v>
+      </c>
       <c r="C30" t="s">
-        <v>1043</v>
+        <v>1126</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
+      </c>
+      <c r="E30">
+        <v>1648</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>45046</v>
       </c>
+      <c r="B31">
+        <v>1033</v>
+      </c>
       <c r="C31" t="s">
-        <v>1051</v>
+        <v>1125</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
+      </c>
+      <c r="E31">
+        <v>1421</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -27998,7 +28090,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(F2:F32,"自己做出")</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -28059,7 +28151,7 @@
       </c>
       <c r="E39">
         <f>AVERAGE(E2:E32)</f>
-        <v>1733.8461538461538</v>
+        <v>1728.5666666666666</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
